--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gigalskiy\IdeaProjects\ParsingAuto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gigalskiy\IdeaProjects\repairtime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B06F13C-832D-4EA7-B0FF-2FE98C873EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F554322-D2CA-4ED4-A4CF-7EA70B0BACFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="118">
   <si>
     <t>FORD / ESCORT ('81) / 1,3 / JGA 43 kW (58 л.с.) 4800 об/мин (N) (S) (SF) 1984-1985</t>
   </si>
@@ -337,6 +337,48 @@
   </si>
   <si>
     <t>SKODA / OCTAVIA II (1Z3/1Z5)  (04-13) / 1,4 / BCA 55 kW (75 л.с.) 5000 об/мин R-Cat 2004-2009</t>
+  </si>
+  <si>
+    <t>Двигатель</t>
+  </si>
+  <si>
+    <t>Тормоза</t>
+  </si>
+  <si>
+    <t>Трансмиссия</t>
+  </si>
+  <si>
+    <t>Замена масла</t>
+  </si>
+  <si>
+    <t>Замена воздушного фильтра</t>
+  </si>
+  <si>
+    <t>Замена ГБЦ</t>
+  </si>
+  <si>
+    <t>Замена впусконого коллектора</t>
+  </si>
+  <si>
+    <t>Замена масла АКПП</t>
+  </si>
+  <si>
+    <t>Замена АКПП</t>
+  </si>
+  <si>
+    <t>Замена сальника АКПП</t>
+  </si>
+  <si>
+    <t>Замена редуктора задней оси</t>
+  </si>
+  <si>
+    <t>Замена тормозных колодок перед</t>
+  </si>
+  <si>
+    <t>Замена тормозных колодок задн</t>
+  </si>
+  <si>
+    <t>Замена тормозной жидкости</t>
   </si>
 </sst>
 </file>
@@ -399,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -410,6 +452,13 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -690,15 +739,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="2" max="2" width="63.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -708,1756 +760,2046 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3">
-        <v>294</v>
-      </c>
-      <c r="D1" s="3">
-        <v>33</v>
-      </c>
-      <c r="E1" s="3">
-        <v>136</v>
+      <c r="C1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="4">
+        <v>0.4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1054</v>
+        <v>3306</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>339</v>
-      </c>
-      <c r="D2" s="3">
-        <v>41</v>
-      </c>
-      <c r="E2" s="3">
-        <v>193</v>
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1561</v>
+        <v>3306</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3">
-        <v>391</v>
-      </c>
-      <c r="D3" s="3">
-        <v>40</v>
-      </c>
-      <c r="E3" s="3">
-        <v>175</v>
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>1953</v>
+        <v>3306</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3">
-        <v>360</v>
-      </c>
-      <c r="D4" s="3">
-        <v>40</v>
-      </c>
-      <c r="E4" s="3">
-        <v>175</v>
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>1954</v>
+        <v>3306</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3">
-        <v>393</v>
-      </c>
-      <c r="D5" s="3">
-        <v>40</v>
-      </c>
-      <c r="E5" s="3">
-        <v>175</v>
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>1955</v>
+        <v>3306</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3">
-        <v>480</v>
-      </c>
-      <c r="D6" s="3">
-        <v>40</v>
-      </c>
-      <c r="E6" s="3">
-        <v>159</v>
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>1956</v>
+        <v>3306</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3">
-        <v>370</v>
-      </c>
-      <c r="D7" s="3">
-        <v>40</v>
-      </c>
-      <c r="E7" s="3">
-        <v>176</v>
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3.2</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>1957</v>
+        <v>3306</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3">
-        <v>352</v>
-      </c>
-      <c r="D8" s="3">
-        <v>41</v>
-      </c>
-      <c r="E8" s="3">
-        <v>127</v>
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>1958</v>
+        <v>3306</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3">
-        <v>361</v>
-      </c>
-      <c r="D9" s="3">
-        <v>41</v>
-      </c>
-      <c r="E9" s="3">
-        <v>127</v>
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>2078</v>
+        <v>3306</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3">
-        <v>34</v>
-      </c>
-      <c r="D10" s="3">
-        <v>34</v>
-      </c>
-      <c r="E10" s="3">
-        <v>151</v>
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1.2</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>2079</v>
+        <v>3306</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3">
-        <v>81</v>
-      </c>
-      <c r="D11" s="3">
-        <v>35</v>
-      </c>
-      <c r="E11" s="3">
-        <v>166</v>
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>2080</v>
+        <v>1054</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3">
-        <v>81</v>
-      </c>
-      <c r="D12" s="3">
-        <v>35</v>
-      </c>
-      <c r="E12" s="3">
-        <v>166</v>
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>2081</v>
+        <v>1054</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3">
-        <v>34</v>
-      </c>
-      <c r="D13" s="3">
-        <v>34</v>
-      </c>
-      <c r="E13" s="3">
-        <v>162</v>
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.15</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2082</v>
+        <v>1054</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3">
-        <v>34</v>
-      </c>
-      <c r="D14" s="3">
-        <v>34</v>
-      </c>
-      <c r="E14" s="3">
-        <v>162</v>
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2083</v>
+        <v>1054</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3">
-        <v>79</v>
-      </c>
-      <c r="D15" s="3">
-        <v>36</v>
-      </c>
-      <c r="E15" s="3">
-        <v>215</v>
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2.4</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>2313</v>
+        <v>1054</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="3">
-        <v>336</v>
-      </c>
-      <c r="D16" s="3">
-        <v>38</v>
-      </c>
-      <c r="E16" s="3">
-        <v>144</v>
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1.7</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>2314</v>
+        <v>1054</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="3">
-        <v>495</v>
-      </c>
-      <c r="D17" s="3">
-        <v>40</v>
-      </c>
-      <c r="E17" s="3">
-        <v>195</v>
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="4">
+        <v>45384</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>2315</v>
+        <v>1054</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3">
-        <v>378</v>
-      </c>
-      <c r="D18" s="3">
-        <v>40</v>
-      </c>
-      <c r="E18" s="3">
-        <v>194</v>
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>2316</v>
+        <v>1054</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="3">
-        <v>378</v>
-      </c>
-      <c r="D19" s="3">
-        <v>40</v>
-      </c>
-      <c r="E19" s="3">
-        <v>191</v>
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="4">
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>2317</v>
+        <v>1561</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="D20" s="3">
-        <v>39</v>
-      </c>
-      <c r="E20" s="3">
-        <v>151</v>
+        <v>40</v>
+      </c>
+      <c r="E20" s="4">
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>2318</v>
+        <v>1953</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3">
-        <v>38</v>
+        <v>360</v>
       </c>
       <c r="D21" s="3">
-        <v>38</v>
-      </c>
-      <c r="E21" s="3">
-        <v>196</v>
+        <v>40</v>
+      </c>
+      <c r="E21" s="4">
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>2319</v>
+        <v>1954</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C22" s="3">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="D22" s="3">
-        <v>39</v>
-      </c>
-      <c r="E22" s="3">
-        <v>195</v>
+        <v>40</v>
+      </c>
+      <c r="E22" s="4">
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>2320</v>
+        <v>1955</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C23" s="3">
-        <v>349</v>
+        <v>480</v>
       </c>
       <c r="D23" s="3">
-        <v>39</v>
-      </c>
-      <c r="E23" s="3">
-        <v>195</v>
+        <v>40</v>
+      </c>
+      <c r="E23" s="4">
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>2321</v>
+        <v>1956</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C24" s="3">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="D24" s="3">
-        <v>39</v>
-      </c>
-      <c r="E24" s="3">
-        <v>195</v>
+        <v>40</v>
+      </c>
+      <c r="E24" s="4">
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>2322</v>
+        <v>1957</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C25" s="3">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="D25" s="3">
-        <v>39</v>
-      </c>
-      <c r="E25" s="3">
-        <v>206</v>
+        <v>41</v>
+      </c>
+      <c r="E25" s="4">
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>2323</v>
+        <v>1958</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C26" s="3">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="D26" s="3">
-        <v>37</v>
-      </c>
-      <c r="E26" s="3">
-        <v>146</v>
+        <v>41</v>
+      </c>
+      <c r="E26" s="4">
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>2324</v>
+        <v>2078</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C27" s="3">
-        <v>353</v>
+        <v>34</v>
       </c>
       <c r="D27" s="3">
-        <v>37</v>
-      </c>
-      <c r="E27" s="3">
-        <v>146</v>
+        <v>34</v>
+      </c>
+      <c r="E27" s="4">
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>2325</v>
+        <v>2079</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C28" s="3">
-        <v>350</v>
+        <v>81</v>
       </c>
       <c r="D28" s="3">
-        <v>37</v>
-      </c>
-      <c r="E28" s="3">
-        <v>147</v>
+        <v>35</v>
+      </c>
+      <c r="E28" s="4">
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>2896</v>
+        <v>2080</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C29" s="3">
-        <v>361</v>
+        <v>81</v>
       </c>
       <c r="D29" s="3">
-        <v>39</v>
-      </c>
-      <c r="E29" s="3">
-        <v>133</v>
+        <v>35</v>
+      </c>
+      <c r="E29" s="4">
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>2897</v>
+        <v>2081</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C30" s="3">
-        <v>377</v>
+        <v>34</v>
       </c>
       <c r="D30" s="3">
-        <v>40</v>
-      </c>
-      <c r="E30" s="3">
+        <v>34</v>
+      </c>
+      <c r="E30" s="4">
         <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>2898</v>
+        <v>2082</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C31" s="3">
-        <v>368</v>
+        <v>34</v>
       </c>
       <c r="D31" s="3">
-        <v>41</v>
-      </c>
-      <c r="E31" s="3">
-        <v>155</v>
+        <v>34</v>
+      </c>
+      <c r="E31" s="4">
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>2899</v>
+        <v>2083</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C32" s="3">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="D32" s="3">
-        <v>22</v>
-      </c>
-      <c r="E32" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="E32" s="4">
+        <v>215</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>2900</v>
+        <v>2313</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C33" s="3">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D33" s="3">
-        <v>39</v>
-      </c>
-      <c r="E33" s="3">
-        <v>147</v>
+        <v>38</v>
+      </c>
+      <c r="E33" s="4">
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>2901</v>
+        <v>2314</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C34" s="3">
-        <v>384</v>
+        <v>495</v>
       </c>
       <c r="D34" s="3">
-        <v>39</v>
-      </c>
-      <c r="E34" s="3">
-        <v>149</v>
+        <v>40</v>
+      </c>
+      <c r="E34" s="4">
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>2902</v>
+        <v>2315</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C35" s="3">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="D35" s="3">
-        <v>38</v>
-      </c>
-      <c r="E35" s="3">
-        <v>149</v>
+        <v>40</v>
+      </c>
+      <c r="E35" s="4">
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>3370</v>
+        <v>2316</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C36" s="3">
-        <v>453</v>
+        <v>378</v>
       </c>
       <c r="D36" s="3">
-        <v>42</v>
-      </c>
-      <c r="E36" s="3">
-        <v>150</v>
+        <v>40</v>
+      </c>
+      <c r="E36" s="4">
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>3371</v>
+        <v>2317</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C37" s="3">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="D37" s="3">
-        <v>42</v>
-      </c>
-      <c r="E37" s="3">
+        <v>39</v>
+      </c>
+      <c r="E37" s="4">
         <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>3372</v>
+        <v>2318</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C38" s="3">
-        <v>420</v>
+        <v>38</v>
       </c>
       <c r="D38" s="3">
-        <v>41</v>
-      </c>
-      <c r="E38" s="3">
-        <v>164</v>
+        <v>38</v>
+      </c>
+      <c r="E38" s="4">
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>3373</v>
+        <v>2319</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C39" s="3">
-        <v>452</v>
+        <v>349</v>
       </c>
       <c r="D39" s="3">
-        <v>41</v>
-      </c>
-      <c r="E39" s="3">
-        <v>161</v>
+        <v>39</v>
+      </c>
+      <c r="E39" s="4">
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>3374</v>
+        <v>2320</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C40" s="3">
-        <v>288</v>
+        <v>349</v>
       </c>
       <c r="D40" s="3">
         <v>39</v>
       </c>
-      <c r="E40" s="3">
-        <v>132</v>
+      <c r="E40" s="4">
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>3375</v>
+        <v>2321</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C41" s="3">
-        <v>256</v>
+        <v>349</v>
       </c>
       <c r="D41" s="3">
         <v>39</v>
       </c>
-      <c r="E41" s="3">
-        <v>129</v>
+      <c r="E41" s="4">
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>3376</v>
+        <v>2322</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C42" s="3">
-        <v>246</v>
+        <v>326</v>
       </c>
       <c r="D42" s="3">
         <v>39</v>
       </c>
-      <c r="E42" s="3">
-        <v>132</v>
+      <c r="E42" s="4">
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>3377</v>
+        <v>2323</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C43" s="3">
-        <v>256</v>
+        <v>353</v>
       </c>
       <c r="D43" s="3">
-        <v>39</v>
-      </c>
-      <c r="E43" s="3">
-        <v>135</v>
+        <v>37</v>
+      </c>
+      <c r="E43" s="4">
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>3378</v>
+        <v>2324</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C44" s="3">
-        <v>245</v>
+        <v>353</v>
       </c>
       <c r="D44" s="3">
         <v>37</v>
       </c>
-      <c r="E44" s="3">
-        <v>125</v>
+      <c r="E44" s="4">
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>3379</v>
+        <v>2325</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C45" s="3">
-        <v>245</v>
+        <v>350</v>
       </c>
       <c r="D45" s="3">
         <v>37</v>
       </c>
-      <c r="E45" s="3">
-        <v>125</v>
+      <c r="E45" s="4">
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>3380</v>
+        <v>2896</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C46" s="3">
-        <v>245</v>
+        <v>361</v>
       </c>
       <c r="D46" s="3">
-        <v>37</v>
-      </c>
-      <c r="E46" s="3">
-        <v>132</v>
+        <v>39</v>
+      </c>
+      <c r="E46" s="4">
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>3718</v>
+        <v>2897</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C47" s="3">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="D47" s="3">
-        <v>35</v>
-      </c>
-      <c r="E47" s="3">
-        <v>117</v>
+        <v>40</v>
+      </c>
+      <c r="E47" s="4">
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>3719</v>
+        <v>2898</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C48" s="3">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="D48" s="3">
-        <v>35</v>
-      </c>
-      <c r="E48" s="3">
-        <v>112</v>
+        <v>41</v>
+      </c>
+      <c r="E48" s="4">
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>3720</v>
+        <v>2899</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C49" s="3">
-        <v>329</v>
+        <v>22</v>
       </c>
       <c r="D49" s="3">
-        <v>35</v>
-      </c>
-      <c r="E49" s="3">
-        <v>112</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E49" s="5"/>
     </row>
     <row r="50" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>3721</v>
+        <v>2900</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C50" s="3">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="D50" s="3">
-        <v>35</v>
-      </c>
-      <c r="E50" s="3">
-        <v>112</v>
+        <v>39</v>
+      </c>
+      <c r="E50" s="4">
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>3722</v>
+        <v>2901</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C51" s="3">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="D51" s="3">
-        <v>35</v>
-      </c>
-      <c r="E51" s="3">
-        <v>111</v>
+        <v>39</v>
+      </c>
+      <c r="E51" s="4">
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>3723</v>
+        <v>2902</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C52" s="3">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="D52" s="3">
-        <v>35</v>
-      </c>
-      <c r="E52" s="3">
-        <v>112</v>
+        <v>38</v>
+      </c>
+      <c r="E52" s="4">
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>3724</v>
+        <v>3370</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C53" s="3">
-        <v>313</v>
+        <v>453</v>
       </c>
       <c r="D53" s="3">
-        <v>40</v>
-      </c>
-      <c r="E53" s="3">
-        <v>149</v>
+        <v>42</v>
+      </c>
+      <c r="E53" s="4">
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>3725</v>
+        <v>3371</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C54" s="3">
-        <v>313</v>
+        <v>453</v>
       </c>
       <c r="D54" s="3">
-        <v>40</v>
-      </c>
-      <c r="E54" s="3">
-        <v>149</v>
+        <v>42</v>
+      </c>
+      <c r="E54" s="4">
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>3726</v>
+        <v>3372</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C55" s="3">
-        <v>313</v>
+        <v>420</v>
       </c>
       <c r="D55" s="3">
-        <v>40</v>
-      </c>
-      <c r="E55" s="3">
-        <v>149</v>
+        <v>41</v>
+      </c>
+      <c r="E55" s="4">
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>3727</v>
+        <v>3373</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C56" s="3">
-        <v>313</v>
+        <v>452</v>
       </c>
       <c r="D56" s="3">
-        <v>40</v>
-      </c>
-      <c r="E56" s="3">
-        <v>149</v>
+        <v>41</v>
+      </c>
+      <c r="E56" s="4">
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>3728</v>
+        <v>3374</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C57" s="3">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="D57" s="3">
-        <v>40</v>
-      </c>
-      <c r="E57" s="3">
-        <v>149</v>
+        <v>39</v>
+      </c>
+      <c r="E57" s="4">
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>5479</v>
+        <v>3375</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C58" s="3">
-        <v>359</v>
+        <v>256</v>
       </c>
       <c r="D58" s="3">
-        <v>42</v>
-      </c>
-      <c r="E58" s="3">
-        <v>183</v>
+        <v>39</v>
+      </c>
+      <c r="E58" s="4">
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>5480</v>
+        <v>3376</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C59" s="3">
-        <v>26</v>
+        <v>246</v>
       </c>
       <c r="D59" s="3">
-        <v>26</v>
-      </c>
-      <c r="E59" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="E59" s="4">
+        <v>132</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>5481</v>
+        <v>3377</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C60" s="3">
-        <v>34</v>
+        <v>256</v>
       </c>
       <c r="D60" s="3">
-        <v>34</v>
-      </c>
-      <c r="E60" s="3">
-        <v>131</v>
+        <v>39</v>
+      </c>
+      <c r="E60" s="4">
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>5482</v>
+        <v>3378</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C61" s="3">
-        <v>34</v>
+        <v>245</v>
       </c>
       <c r="D61" s="3">
-        <v>34</v>
-      </c>
-      <c r="E61" s="3">
-        <v>131</v>
+        <v>37</v>
+      </c>
+      <c r="E61" s="4">
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>5483</v>
+        <v>3379</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C62" s="3">
-        <v>38</v>
+        <v>245</v>
       </c>
       <c r="D62" s="3">
-        <v>38</v>
-      </c>
-      <c r="E62" s="3">
-        <v>159</v>
+        <v>37</v>
+      </c>
+      <c r="E62" s="4">
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>5484</v>
+        <v>3380</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C63" s="3">
-        <v>38</v>
+        <v>245</v>
       </c>
       <c r="D63" s="3">
-        <v>38</v>
-      </c>
-      <c r="E63" s="3">
-        <v>159</v>
+        <v>37</v>
+      </c>
+      <c r="E63" s="4">
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>5485</v>
+        <v>3718</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C64" s="3">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="D64" s="3">
-        <v>37</v>
-      </c>
-      <c r="E64" s="3">
-        <v>144</v>
+        <v>35</v>
+      </c>
+      <c r="E64" s="4">
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>5486</v>
+        <v>3719</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C65" s="3">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="D65" s="3">
-        <v>37</v>
-      </c>
-      <c r="E65" s="3">
-        <v>145</v>
+        <v>35</v>
+      </c>
+      <c r="E65" s="4">
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>5487</v>
+        <v>3720</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C66" s="3">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="D66" s="3">
-        <v>37</v>
-      </c>
-      <c r="E66" s="3">
-        <v>144</v>
+        <v>35</v>
+      </c>
+      <c r="E66" s="4">
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>5682</v>
+        <v>3721</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C67" s="3">
-        <v>31</v>
+        <v>329</v>
       </c>
       <c r="D67" s="3">
-        <v>31</v>
-      </c>
-      <c r="E67" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="E67" s="4">
+        <v>112</v>
+      </c>
     </row>
     <row r="68" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>5683</v>
+        <v>3722</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C68" s="3">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="D68" s="3">
-        <v>36</v>
-      </c>
-      <c r="E68" s="3">
-        <v>130</v>
+        <v>35</v>
+      </c>
+      <c r="E68" s="4">
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>5684</v>
+        <v>3723</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C69" s="3">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="D69" s="3">
-        <v>38</v>
-      </c>
-      <c r="E69" s="3">
-        <v>164</v>
+        <v>35</v>
+      </c>
+      <c r="E69" s="4">
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>6195</v>
+        <v>3724</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C70" s="3">
-        <v>31</v>
+        <v>313</v>
       </c>
       <c r="D70" s="3">
-        <v>31</v>
-      </c>
-      <c r="E70" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="E70" s="4">
+        <v>149</v>
+      </c>
     </row>
     <row r="71" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>6196</v>
+        <v>3725</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C71" s="3">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="D71" s="3">
-        <v>38</v>
-      </c>
-      <c r="E71" s="3">
-        <v>114</v>
+        <v>40</v>
+      </c>
+      <c r="E71" s="4">
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>6294</v>
+        <v>3726</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C72" s="3">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="D72" s="3">
-        <v>39</v>
-      </c>
-      <c r="E72" s="3">
-        <v>155</v>
+        <v>40</v>
+      </c>
+      <c r="E72" s="4">
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>6295</v>
+        <v>3727</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C73" s="3">
-        <v>30</v>
+        <v>313</v>
       </c>
       <c r="D73" s="3">
-        <v>30</v>
-      </c>
-      <c r="E73" s="3">
-        <v>159</v>
+        <v>40</v>
+      </c>
+      <c r="E73" s="4">
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>6296</v>
+        <v>3728</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C74" s="3">
-        <v>34</v>
+        <v>313</v>
       </c>
       <c r="D74" s="3">
-        <v>34</v>
-      </c>
-      <c r="E74" s="3">
-        <v>158</v>
+        <v>40</v>
+      </c>
+      <c r="E74" s="4">
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>6721</v>
+        <v>5479</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C75" s="3">
-        <v>37</v>
+        <v>359</v>
       </c>
       <c r="D75" s="3">
-        <v>37</v>
-      </c>
-      <c r="E75" s="3">
-        <v>113</v>
+        <v>42</v>
+      </c>
+      <c r="E75" s="4">
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>6722</v>
+        <v>5480</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C76" s="3">
-        <v>318</v>
+        <v>26</v>
       </c>
       <c r="D76" s="3">
-        <v>38</v>
-      </c>
-      <c r="E76" s="3">
-        <v>117</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E76" s="5"/>
     </row>
     <row r="77" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>6723</v>
+        <v>5481</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C77" s="3">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D77" s="3">
-        <v>37</v>
-      </c>
-      <c r="E77" s="3">
-        <v>113</v>
+        <v>34</v>
+      </c>
+      <c r="E77" s="4">
+        <v>131</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>6724</v>
+        <v>5482</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C78" s="3">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D78" s="3">
-        <v>37</v>
-      </c>
-      <c r="E78" s="3">
-        <v>113</v>
+        <v>34</v>
+      </c>
+      <c r="E78" s="4">
+        <v>131</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>6787</v>
+        <v>5483</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C79" s="3">
-        <v>300</v>
+        <v>38</v>
       </c>
       <c r="D79" s="3">
         <v>38</v>
       </c>
-      <c r="E79" s="3">
-        <v>138</v>
+      <c r="E79" s="4">
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>6788</v>
+        <v>5484</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C80" s="3">
-        <v>300</v>
+        <v>38</v>
       </c>
       <c r="D80" s="3">
         <v>38</v>
       </c>
-      <c r="E80" s="3">
-        <v>138</v>
+      <c r="E80" s="4">
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>6789</v>
+        <v>5485</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C81" s="3">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D81" s="3">
-        <v>38</v>
-      </c>
-      <c r="E81" s="3">
-        <v>168</v>
+        <v>37</v>
+      </c>
+      <c r="E81" s="4">
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>6896</v>
+        <v>5486</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C82" s="3">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="D82" s="3">
-        <v>40</v>
-      </c>
-      <c r="E82" s="3">
-        <v>157</v>
+        <v>37</v>
+      </c>
+      <c r="E82" s="4">
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>6897</v>
+        <v>5487</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C83" s="3">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="D83" s="3">
-        <v>39</v>
-      </c>
-      <c r="E83" s="3">
-        <v>156</v>
+        <v>37</v>
+      </c>
+      <c r="E83" s="4">
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>7276</v>
+        <v>5682</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C84" s="3">
-        <v>379</v>
+        <v>31</v>
       </c>
       <c r="D84" s="3">
-        <v>40</v>
-      </c>
-      <c r="E84" s="3">
-        <v>151</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E84" s="5"/>
     </row>
     <row r="85" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>7277</v>
+        <v>5683</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C85" s="3">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="D85" s="3">
-        <v>40</v>
-      </c>
-      <c r="E85" s="3">
-        <v>119</v>
+        <v>36</v>
+      </c>
+      <c r="E85" s="4">
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>7278</v>
+        <v>5684</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C86" s="3">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="D86" s="3">
-        <v>40</v>
-      </c>
-      <c r="E86" s="3">
-        <v>177</v>
+        <v>38</v>
+      </c>
+      <c r="E86" s="4">
+        <v>164</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>7447</v>
+        <v>6195</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C87" s="3">
-        <v>382</v>
+        <v>31</v>
       </c>
       <c r="D87" s="3">
-        <v>36</v>
-      </c>
-      <c r="E87" s="3">
-        <v>126</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E87" s="5"/>
     </row>
     <row r="88" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>7448</v>
+        <v>6196</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C88" s="3">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="D88" s="3">
-        <v>35</v>
-      </c>
-      <c r="E88" s="3">
-        <v>199</v>
+        <v>38</v>
+      </c>
+      <c r="E88" s="4">
+        <v>114</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>7449</v>
+        <v>6294</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C89" s="3">
-        <v>372</v>
+        <v>325</v>
       </c>
       <c r="D89" s="3">
-        <v>36</v>
-      </c>
-      <c r="E89" s="3">
-        <v>116</v>
+        <v>39</v>
+      </c>
+      <c r="E89" s="4">
+        <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>7450</v>
+        <v>6295</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C90" s="3">
-        <v>263</v>
+        <v>30</v>
       </c>
       <c r="D90" s="3">
-        <v>36</v>
-      </c>
-      <c r="E90" s="3">
-        <v>186</v>
+        <v>30</v>
+      </c>
+      <c r="E90" s="4">
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>7634</v>
+        <v>6296</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C91" s="3">
-        <v>296</v>
+        <v>34</v>
       </c>
       <c r="D91" s="3">
         <v>34</v>
       </c>
-      <c r="E91" s="3">
-        <v>126</v>
+      <c r="E91" s="4">
+        <v>158</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>7635</v>
+        <v>6721</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C92" s="3">
-        <v>291</v>
+        <v>37</v>
       </c>
       <c r="D92" s="3">
-        <v>34</v>
-      </c>
-      <c r="E92" s="3">
-        <v>121</v>
+        <v>37</v>
+      </c>
+      <c r="E92" s="4">
+        <v>113</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>7636</v>
+        <v>6722</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C93" s="3">
-        <v>200</v>
+        <v>318</v>
       </c>
       <c r="D93" s="3">
         <v>38</v>
       </c>
-      <c r="E93" s="3">
-        <v>135</v>
+      <c r="E93" s="4">
+        <v>117</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>7637</v>
+        <v>6723</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C94" s="3">
-        <v>292</v>
+        <v>37</v>
       </c>
       <c r="D94" s="3">
-        <v>76</v>
-      </c>
-      <c r="E94" s="3">
-        <v>153</v>
+        <v>37</v>
+      </c>
+      <c r="E94" s="4">
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>8749</v>
+        <v>6724</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C95" s="3">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D95" s="3">
-        <v>32</v>
-      </c>
-      <c r="E95" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="E95" s="4">
+        <v>113</v>
+      </c>
     </row>
     <row r="96" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>8750</v>
+        <v>6787</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C96" s="3">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="D96" s="3">
-        <v>37</v>
-      </c>
-      <c r="E96" s="3">
-        <v>108</v>
+        <v>38</v>
+      </c>
+      <c r="E96" s="4">
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>8751</v>
+        <v>6788</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C97" s="3">
-        <v>32</v>
+        <v>300</v>
       </c>
       <c r="D97" s="3">
-        <v>32</v>
-      </c>
-      <c r="E97" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="E97" s="4">
+        <v>138</v>
+      </c>
     </row>
     <row r="98" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>8752</v>
+        <v>6789</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C98" s="3">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D98" s="3">
-        <v>40</v>
-      </c>
-      <c r="E98" s="3">
-        <v>157</v>
+        <v>38</v>
+      </c>
+      <c r="E98" s="4">
+        <v>168</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>8753</v>
+        <v>6896</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C99" s="3">
-        <v>223</v>
+        <v>319</v>
       </c>
       <c r="D99" s="3">
         <v>40</v>
       </c>
-      <c r="E99" s="3">
-        <v>150</v>
+      <c r="E99" s="4">
+        <v>157</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>9774</v>
+        <v>6897</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C100" s="3">
-        <v>34</v>
+        <v>319</v>
       </c>
       <c r="D100" s="3">
-        <v>34</v>
-      </c>
-      <c r="E100" s="3">
-        <v>210</v>
+        <v>39</v>
+      </c>
+      <c r="E100" s="4">
+        <v>156</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>9775</v>
+        <v>7276</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C101" s="3">
-        <v>33</v>
+        <v>379</v>
       </c>
       <c r="D101" s="3">
-        <v>33</v>
-      </c>
-      <c r="E101" s="3">
-        <v>194</v>
+        <v>40</v>
+      </c>
+      <c r="E101" s="4">
+        <v>151</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>9776</v>
+        <v>7277</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C102" s="3">
-        <v>31</v>
+        <v>353</v>
       </c>
       <c r="D102" s="3">
-        <v>31</v>
-      </c>
-      <c r="E102" s="3">
-        <v>160</v>
+        <v>40</v>
+      </c>
+      <c r="E102" s="4">
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>9777</v>
+        <v>7278</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C103" s="3">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="D103" s="3">
-        <v>37</v>
-      </c>
-      <c r="E103" s="3">
-        <v>154</v>
+        <v>40</v>
+      </c>
+      <c r="E103" s="4">
+        <v>177</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
+        <v>7447</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C104" s="3">
+        <v>382</v>
+      </c>
+      <c r="D104" s="3">
+        <v>36</v>
+      </c>
+      <c r="E104" s="4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>7448</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C105" s="3">
+        <v>263</v>
+      </c>
+      <c r="D105" s="3">
+        <v>35</v>
+      </c>
+      <c r="E105" s="4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>7449</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C106" s="3">
+        <v>372</v>
+      </c>
+      <c r="D106" s="3">
+        <v>36</v>
+      </c>
+      <c r="E106" s="4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>7450</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C107" s="3">
+        <v>263</v>
+      </c>
+      <c r="D107" s="3">
+        <v>36</v>
+      </c>
+      <c r="E107" s="4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>7634</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C108" s="3">
+        <v>296</v>
+      </c>
+      <c r="D108" s="3">
+        <v>34</v>
+      </c>
+      <c r="E108" s="4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>7635</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C109" s="3">
+        <v>291</v>
+      </c>
+      <c r="D109" s="3">
+        <v>34</v>
+      </c>
+      <c r="E109" s="4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>7636</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C110" s="3">
+        <v>200</v>
+      </c>
+      <c r="D110" s="3">
+        <v>38</v>
+      </c>
+      <c r="E110" s="4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>7637</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C111" s="3">
+        <v>292</v>
+      </c>
+      <c r="D111" s="3">
+        <v>76</v>
+      </c>
+      <c r="E111" s="4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>8749</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C112" s="3">
+        <v>32</v>
+      </c>
+      <c r="D112" s="3">
+        <v>32</v>
+      </c>
+      <c r="E112" s="5"/>
+    </row>
+    <row r="113" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>8750</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C113" s="3">
+        <v>282</v>
+      </c>
+      <c r="D113" s="3">
+        <v>37</v>
+      </c>
+      <c r="E113" s="4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>8751</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C114" s="3">
+        <v>32</v>
+      </c>
+      <c r="D114" s="3">
+        <v>32</v>
+      </c>
+      <c r="E114" s="5"/>
+    </row>
+    <row r="115" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>8752</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C115" s="3">
+        <v>297</v>
+      </c>
+      <c r="D115" s="3">
+        <v>40</v>
+      </c>
+      <c r="E115" s="4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>8753</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C116" s="3">
+        <v>223</v>
+      </c>
+      <c r="D116" s="3">
+        <v>40</v>
+      </c>
+      <c r="E116" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>9774</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C117" s="3">
+        <v>34</v>
+      </c>
+      <c r="D117" s="3">
+        <v>34</v>
+      </c>
+      <c r="E117" s="4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>9775</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C118" s="3">
+        <v>33</v>
+      </c>
+      <c r="D118" s="3">
+        <v>33</v>
+      </c>
+      <c r="E118" s="4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>9776</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C119" s="3">
+        <v>31</v>
+      </c>
+      <c r="D119" s="3">
+        <v>31</v>
+      </c>
+      <c r="E119" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>9777</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C120" s="3">
+        <v>375</v>
+      </c>
+      <c r="D120" s="3">
+        <v>37</v>
+      </c>
+      <c r="E120" s="4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
         <v>9778</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B121" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C121" s="3">
         <v>459</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D121" s="3">
         <v>37</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E121" s="4">
         <v>175</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gigalskiy\IdeaProjects\repairtime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F554322-D2CA-4ED4-A4CF-7EA70B0BACFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08F7D49-E9D8-494F-9A34-40C00D667FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="48">
   <si>
     <t>FORD / ESCORT ('81) / 1,3 / JGA 43 kW (58 л.с.) 4800 об/мин (N) (S) (SF) 1984-1985</t>
   </si>
@@ -54,105 +54,30 @@
     <t>BMW / 3 SERIES (E46)  (98-07) / 3,0D 330d / 30 6D 2 150 kW (204 л.с.) 4000 об/мин 2003-2007</t>
   </si>
   <si>
-    <t xml:space="preserve">BMW / 3 SERIES(G20/21) (18-) / 2,0D 318d mhev / B47 D20B 110 kW (150 л.с.) 4000 об/мин 2020-2021 </t>
-  </si>
-  <si>
     <t xml:space="preserve">BMW / 3 SERIES(G20/21) (18-) / 2,0D 320d/xDrive / B47 D20B 120 kW (163 л.с.) 4000 об/мин 2018-2021 </t>
   </si>
   <si>
     <t xml:space="preserve">BMW / 3 SERIES(G20/21) (18-) / 2,0D 320d/xDrive / B47 D20B 140 kW (190 л.с.) 4000 об/мин 2018-2021 </t>
   </si>
   <si>
-    <t xml:space="preserve">BMW / 3 SERIES(G20/21) (18-) / 2,0D 320d/xDrive mhev / B47 D20B 120 kW (163 л.с.) 2020-2021 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMW / 3 SERIES(G20/21) (18-) / 2,0D 320d/xDrive mhev / B47 D20B 140 kW (190 л.с.) 4000 об/мин 2020-2021 </t>
-  </si>
-  <si>
     <t xml:space="preserve">BMW / 3 SERIES(G20/21) (18-) / 3,0 M340i xDrive / B58 B30B 275 kW (374 л.с.) 5500 об/мин R-Cat 2019-2020 </t>
   </si>
   <si>
     <t>BMW / 5 SERIES (E60/61)  (03-10) / 3,0D 535d / 30 6D 5 210 kW (286 л.с.) 4400 об/мин 2007-2010</t>
   </si>
   <si>
-    <t>BMW / 5 SERIES (E60/61)  (03-10) / 4,0 540i / N62 B40A 225 kW (306 л.с.) 6300 об/мин R-Cat 2005-2010</t>
-  </si>
-  <si>
-    <t>BMW / 5 SERIES (E60/61)  (03-10) / 4,4 545i / N62 B44A 245 kW (333 л.с.) 6100 об/мин R-Cat 2003-2006</t>
-  </si>
-  <si>
-    <t>BMW / 5 SERIES (E60/61)  (03-10) / 4,8 550i / N62 B48B 270 kW (367 л.с.) 6300 об/мин R-Cat 2005-2010</t>
-  </si>
-  <si>
-    <t>BMW / 5 SERIES (E60/61)  (03-10) / 5,0 M5 / S85 B50A 373 kW (507 л.с.) 7750 об/мин R-Cat 2004-2010</t>
-  </si>
-  <si>
-    <t>BMW / 5 SERIES (F10/11)  (10-17) / 1,6 520i / N20 B16A 125 kW (170 л.с.) 5000 об/мин R-Cat 2015-2017</t>
-  </si>
-  <si>
-    <t>BMW / 5 SERIES (F10/11)  (10-17) / 2,0 520i / N20 B20B/U0 120 kW (163 л.с.) 4800 об/мин R-Cat 2010-2017</t>
-  </si>
-  <si>
-    <t>BMW / 5 SERIES (F10/11)  (10-17) / 2,0 520i / N20 B20B/U0 125 kW (170 л.с.) 5000 об/мин R-Cat 2010-2015</t>
-  </si>
-  <si>
-    <t>BMW / 5 SERIES (F10/11)  (10-17) / 2,0 520i / N20 B20B/U0 135 kW (184 л.с.) 5000 об/мин R-Cat 2011-2017</t>
-  </si>
-  <si>
-    <t>BMW / 5 SERIES (F10/11)  (10-17) / 2,0 528i/xDrive / N20 B20A 180 kW (245 л.с.) 5000 об/мин R-Cat 2011-2017</t>
-  </si>
-  <si>
-    <t>BMW / 5 SERIES (F10/11)  (10-17) / 2,0D 518d / B47 D20A 100 kW (136 л.с.) 4000 об/мин 2014-2017</t>
-  </si>
-  <si>
-    <t>BMW / 5 SERIES (F10/11)  (10-17) / 2,0D 518d / B47 D20A 110 kW (150 л.с.) 4000 об/мин 2014-2017</t>
-  </si>
-  <si>
     <t>BMW / 5 SERIES (F10/11)  (10-17) / 2,0D 518d / N47 D20C 100 kW (136 л.с.) 4000 об/мин 2013-2016</t>
   </si>
   <si>
     <t>CHEVROLET / CAPTIVA(L) (C140) / 2,2D CDTi / LNQ/Z22D1 135 kW (184 л.с.) 3800 об/мин 2011-2015</t>
   </si>
   <si>
-    <t>CHEVROLET / CAPTIVA(L) (C140) / 2,4 / LE5/LE9 123 kW (167 л.с.) 5600 об/мин R-Cat 2011-2015</t>
-  </si>
-  <si>
-    <t>CHEVROLET / CAPTIVA(L) (C140) / 3,0 / LF1 190 kW (258 л.с.) 6700 об/мин R-Cat 2011-2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHEVROLET / CORVETTE / 6,2 Stingray / LT1 343 kW (466 л.с.) 6000 об/мин 2013-2015 </t>
-  </si>
-  <si>
-    <t>CHEVROLET / CRUZE(J300/305/308) / 1,4 / LDD/A14XER 74 kW (101 л.с.) 6000 об/мин R-Cat 2013-2015</t>
-  </si>
-  <si>
-    <t>CHEVROLET / CRUZE(J300/305/308) / 1,4 Turbo / LUJ/A14NET 103 kW (140 л.с.) 4900 об/мин R-Cat 2012-2015</t>
-  </si>
-  <si>
     <t>CHEVROLET / CRUZE(J300/305/308) / 1,4 Turbo / LUV/A14NET 103 kW (140 л.с.) 4900 об/мин R-Cat 2014-2015</t>
   </si>
   <si>
-    <t>FORD / ESCORT ('91) / 2,0 Cosworth / N5E 162 kW (220 л.с.) 5700 об/мин R-Cat 1994-1996</t>
-  </si>
-  <si>
-    <t>FORD / ESCORT ('91) / 2,0 Cosworth / N5F 162 kW (220 л.с.) 6250 об/мин R-Cat 1992-1994</t>
-  </si>
-  <si>
-    <t>FORD / ESCORT ('91) / 2,0 RS / N7A 110 kW (150 л.с.) 6000 об/мин R-Cat 1991-1996</t>
-  </si>
-  <si>
     <t>FORD / ESCORT ('91) / 2,0 RS 4x4 / N7A 110 kW (150 л.с.) 6000 об/мин R-Cat 1993-1996</t>
   </si>
   <si>
-    <t xml:space="preserve">FORD / EXPLORER('93) / 4,0 OHC / 152 kW (207 л.с.) 5250 об/мин R-Cat 1998-2002 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FORD / EXPLORER('93) / 4,0 OHV / 115 kW (156 л.с.) 4200 об/мин R-Cat 1993-1997 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FORD / EXPLORER('93) / 4,0 OHV / 120 kW (163 л.с.) 5000 об/мин R-Cat 1998-2002 </t>
-  </si>
-  <si>
     <t xml:space="preserve">FORD / EXPLORER('93) / 4,0 OHV / 121 kW (165 л.с.) 4200 об/мин R-Cat 1993-1996 </t>
   </si>
   <si>
@@ -165,177 +90,24 @@
     <t>FORD / FIESTA ('02) / 1,25 / FUJA 55 kW (75 л.с.) 5700 об/мин R-Cat 2002-2008</t>
   </si>
   <si>
-    <t>FORD / FOCUS ('15) / 1,5D TDCi / XWDE 88 kW (120 л.с.) 3600 об/мин 2014-2018</t>
-  </si>
-  <si>
     <t>FORD / FOCUS ('15) / 1,5D TDCi / XXDA 70 kW (95 л.с.) 4000 об/мин 2014-2018</t>
   </si>
   <si>
     <t>FORD / FOCUS ('15) / 1,5D TDCi / XXDC 70 kW (95 л.с.) 4000 об/мин 2014-2018</t>
   </si>
   <si>
-    <t>FORD / FOCUS ('15) / 1,5D TDCi / XXDD 70 kW (95 л.с.) 3750 об/мин 2014-2018</t>
-  </si>
-  <si>
-    <t>FORD / FOCUS ('15) / 1,5D TDCi ECOnetic / AEDA 77 kW (105 л.с.) 3600 об/мин 2014-2018</t>
-  </si>
-  <si>
-    <t>FORD / FOCUS ('15) / 1,5D TDCi ECOnetic / XXDB 77 kW (105 л.с.) 4000 об/мин 2014-2018</t>
-  </si>
-  <si>
-    <t>FORD / FOCUS ('15) / 1,6 Ti-VCT / IQDA 77 kW (105 л.с.) 6000 об/мин R-Cat 2014-2015</t>
-  </si>
-  <si>
-    <t>FORD / FOCUS ('15) / 1,6 Ti-VCT / IQDB 77 kW (105 л.с.) 6000 об/мин R-Cat 2014-2015</t>
-  </si>
-  <si>
-    <t>FORD / FOCUS ('15) / 1,6 Ti-VCT / IQDC 77 kW (105 л.с.) 6000 об/мин R-Cat 2015-2018</t>
-  </si>
-  <si>
-    <t>FORD / FOCUS ('15) / 1,6 Ti-VCT / PNDA 92 kW (125 л.с.) 6300 об/мин R-Cat 2014-2015</t>
-  </si>
-  <si>
-    <t>FORD / FOCUS ('15) / 1,6 Ti-VCT / PNDD 92 kW (125 л.с.) 6300 об/мин R-Cat 2015-2018</t>
-  </si>
-  <si>
-    <t>HYUNDAI / SANTA FE (12-18) / 2,4 GDi / G4KJ 141 kW (192 л.с.) 6300 об/мин R-Cat 2012-2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HYUNDAI / SANTA FE (18-) / 2,0D CRDi / D4HA 110 kW (150 л.с.) 4000 об/мин 2018-2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HYUNDAI / SANTA FE (18-) / 2,0D CRDi / D4HA 136 kW (185 л.с.) 4000 об/мин 2018-2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HYUNDAI / SANTA FE (18-) / 2,2D CRDi / D4HB 147 kW (200 л.с.) 3800 об/мин MY -20 2018-2020 </t>
-  </si>
-  <si>
     <t xml:space="preserve">HYUNDAI / SOLARIS(RBR) (11-17) / 1,4 / G4FA 79 kW (107 л.с.) 6300 об/мин R-Cat (RU) 2010-2017 </t>
   </si>
   <si>
-    <t xml:space="preserve">HYUNDAI / SOLARIS(RBR) (11-17) / 1,4 / G4FA 80 kW (109 л.с.) 6300 об/мин R-Cat (RU) 2011-2014 </t>
-  </si>
-  <si>
-    <t>HYUNDAI / SONATA (88-92) / 1,8 / G4-M 70 kW (95 л.с.) 5200 об/мин 1988-1992</t>
-  </si>
-  <si>
-    <t>HYUNDAI / SONATA (88-92) / 1,8 / G4-M 70 kW (95 л.с.) 5200 об/мин R-Cat (A/NL) 1988-1992</t>
-  </si>
-  <si>
-    <t>HYUNDAI / SONATA (88-92) / 2,0 / G4-P 74 kW (100 л.с.) 5000 об/мин 1988-1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIA / CEE'D (18-) / 1,6D CRDi Hybrid / D4FE 85 kW (116 л.с.) 2020-2021 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIA / CERATO / 1,5D CRDi / D4FA 75 kW (102 л.с.) 4000 об/мин 2004-2007 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIA / CERATO / 1,6 / G4ED 77 kW (105 л.с.) 5800 об/мин R-Cat 2004-2007 </t>
-  </si>
-  <si>
     <t xml:space="preserve">LAND ROVER / RANGE ROVER VELAR (L560)  (17-) / 2,0D D200 MHEV / 204DTY 150 kW (204 л.с.) 4250 об/мин 2020-2021 </t>
   </si>
   <si>
-    <t xml:space="preserve">LAND ROVER / RANGE ROVER VELAR (L560)  (17-) / 2,0D D240 / AJ200D/204DTA 177 kW (241 л.с.) 4000 об/мин 2017-2020 </t>
-  </si>
-  <si>
-    <t>LEXUS / SC / 4,3 430 / 3UZ-FE 210 kW (286 л.с.) 5600 об/мин R-Cat 2001-2006</t>
-  </si>
-  <si>
-    <t>LEXUS / UX (19-) / 2,0 200 / M20A-FKS 127 kW (173 л.с.) 6600 об/мин R-Cat 2019-2021</t>
-  </si>
-  <si>
-    <t>LEXUS / UX (19-) / 2,0 250h / M20A-FXS 112 kW (152 л.с.) 6000 об/мин R-Cat 2019-2021</t>
-  </si>
-  <si>
     <t xml:space="preserve">MITSUBISHI (EURO) / L200 (15-) / 2,4D / 4N15 113 kW (154 л.с.) 3500 об/мин MY 19- (RU) 2019-2021 </t>
   </si>
   <si>
-    <t>MITSUBISHI (EURO) / L200 (15-) / 2,4D / 4N15 133 kW (181 л.с.) 3500 об/мин 2015-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MITSUBISHI (EURO) / L200 (15-) / 2,4D / 4N15 133 kW (181 л.с.) 3500 об/мин MY -18 (RU) 2015-2019 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MITSUBISHI (EURO) / L200 (15-) / 2,4D / 4N15 133 kW (181 л.с.) 3500 об/мин MY 19- (RU) 2019-2021 </t>
-  </si>
-  <si>
-    <t>MITSUBISHI (EURO) / LANCER (07-17) / 2,0 Evolution X FQ-330 / 4B11 242 kW (329 л.с.) 6500 об/мин R-Cat 2009-2012</t>
-  </si>
-  <si>
-    <t>MITSUBISHI (EURO) / LANCER (07-17) / 2,0 Evolution X FQ-360 / 4B11 264 kW (359 л.с.) 6500 об/мин R-Cat 2009-2012</t>
-  </si>
-  <si>
-    <t>MITSUBISHI (EURO) / LANCER (07-17) / 2,0 Ralliart/Turbo / 4B11 177 kW (241 л.с.) 6000 об/мин R-Cat 2007-2012</t>
-  </si>
-  <si>
-    <t>MITSUBISHI (EURO) / PAJERO (06-) / 3,2D Di-DC / 4M41 118 kW (160 л.с.) 3800 об/мин MT 2006-2009</t>
-  </si>
-  <si>
-    <t>MITSUBISHI (EURO) / PAJERO (06-) / 3,2D Di-DC / 4M41 125 kW (170 л.с.) 3800 об/мин AT 2006-2009</t>
-  </si>
-  <si>
-    <t>NISSAN (EURO) / PATHFINDER (R51) (04-15) / 2,5D dCi / YD25DDTI 140 kW (190 л.с.) 4000 об/мин 2010-2015</t>
-  </si>
-  <si>
-    <t>NISSAN (EURO) / PATHFINDER (R51) (04-15) / 3,0D / V9X 170 kW (231 л.с.) 3750 об/мин 2010-2015</t>
-  </si>
-  <si>
-    <t>NISSAN (EURO) / PATHFINDER (R51) (04-15) / 4,0 / VQ40DE 198 kW (269 л.с.) 5600 об/мин R-Cat 2004-2011</t>
-  </si>
-  <si>
-    <t>NISSAN (EURO) / X-TRAIL (T32) (14-) / 1,6D dCi / R9M 96 kW (131 л.с.) 4000 об/мин Euro 5 2014-2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NISSAN (EURO) / X-TRAIL (T32) (14-) / 2,0 / MR20DD 106 kW (144 л.с.) 6000 об/мин R-Cat (RU) 2014-2021 </t>
-  </si>
-  <si>
-    <t>NISSAN (EURO) / X-TRAIL (T32) (14-) / 2,0D dCi / M9R 130 kW (177 л.с.) 3750 об/мин 2016-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NISSAN (EURO) / X-TRAIL (T32) (14-) / 2,5 / QR25DE 126 kW (171 л.с.) 6000 об/мин R-Cat (RU) 2014-2021 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEUGEOT / 208 (12-19) / 1,6D HDI / DV6DTEDM (9HJ) 68 kW (92 л.с.) 4000 об/мин 2012-2015 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEUGEOT / 208 (12-19) / 1,6D HDI / DV6ETEDM (9HK) 55 kW (75 л.с.) 4000 об/мин 2013-2015 </t>
-  </si>
-  <si>
-    <t>PEUGEOT / 3008 (09-16) / 1,2 THP/PURETECH / EB2DTS (HNY) 96 kW (130 л.с.) 5500 об/мин R-Cat 2014-2016</t>
-  </si>
-  <si>
-    <t>PEUGEOT / 3008 (09-16) / 1,6 THP / EP6CDT (5FV) 115 kW (156 л.с.) 5800 об/мин R-Cat 2009-2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RENAULT / KOLEOS II (HZG) (17-) / 2,0D BLUE DCI / M9R 730 140 kW (190 л.с.) 3750 об/мин 2019-2020 </t>
-  </si>
-  <si>
-    <t>RENAULT / KOLEOS II (HZG) (17-) / 2,0D DCI / M9R 868 130 kW (177 л.с.) 3750 об/мин 2017-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RENAULT / KOLEOS II (HZG) (17-) / 2,0D DCI / M9R 869 128 kW (174 л.с.) 3750 об/мин 2017-2019 </t>
-  </si>
-  <si>
-    <t>RENAULT / LAGUNA (B/K/S56) (94-01) / 1,6 16V / K4M 720/4 79 kW (110 л.с.) 5750 об/мин R-Cat 1998-2001</t>
-  </si>
-  <si>
-    <t>RENAULT / LAGUNA (B/K/S56) (94-01) / 1,8 / F3P 674 66 kW (90 л.с.) 5250 об/мин R-Cat 1995-2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKODA / KODIAQ (NV7) (18-) / 1,4 TSI / CZDA 110 kW (150 л.с.) R-Cat (RU) 2018-2021 </t>
-  </si>
-  <si>
     <t xml:space="preserve">SKODA / KODIAQ (NV7) (18-) / 2,0 TSI / CZPA 132 kW (179 л.с.) R-Cat (RU) 2018-2021 </t>
   </si>
   <si>
-    <t xml:space="preserve">SKODA / KODIAQ (NV7) (18-) / 2,0D TDI CR / DBGC 110 kW (150 л.с.) (RU) 2018-2021 </t>
-  </si>
-  <si>
-    <t>SKODA / OCTAVIA II (1Z3/1Z5)  (04-13) / 1,2 TSI / CBZB 77 kW (105 л.с.) 5000 об/мин R-Cat 2010-2013</t>
-  </si>
-  <si>
     <t>SKODA / OCTAVIA II (1Z3/1Z5)  (04-13) / 1,4 / BCA 55 kW (75 л.с.) 5000 об/мин R-Cat 2004-2009</t>
   </si>
   <si>
@@ -379,6 +151,24 @@
   </si>
   <si>
     <t>Замена тормозной жидкости</t>
+  </si>
+  <si>
+    <t>Замена тормозных шлангов</t>
+  </si>
+  <si>
+    <t>Замена усилителя торомзов5</t>
+  </si>
+  <si>
+    <t>Замена кулисы МКПП</t>
+  </si>
+  <si>
+    <t>Замена переднего привода</t>
+  </si>
+  <si>
+    <t>Замена свечей зажигания</t>
+  </si>
+  <si>
+    <t>Замена дроссельной заслонки</t>
   </si>
 </sst>
 </file>
@@ -441,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -454,9 +244,6 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -739,18 +526,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="63.5703125" customWidth="1"/>
+    <col min="2" max="2" width="81" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="6"/>
+    <col min="5" max="5" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -761,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="E1" s="4">
         <v>0.4</v>
@@ -778,10 +565,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="E2" s="4">
         <v>0.1</v>
@@ -795,10 +582,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="E3" s="4">
         <v>3.5</v>
@@ -812,10 +599,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="E4" s="4">
         <v>2.2999999999999998</v>
@@ -829,10 +616,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="E5" s="4">
         <v>1.5</v>
@@ -846,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="E6" s="4">
         <v>3</v>
@@ -863,10 +650,10 @@
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="E7" s="4">
         <v>3.2</v>
@@ -880,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="E8" s="4">
         <v>2</v>
@@ -897,10 +684,10 @@
         <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -914,10 +701,10 @@
         <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="E10" s="4">
         <v>1.2</v>
@@ -931,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="E11" s="4">
         <v>0.6</v>
@@ -948,10 +735,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="E12" s="4">
         <v>0.5</v>
@@ -965,10 +752,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="E13" s="4">
         <v>0.15</v>
@@ -982,10 +769,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="E14" s="4">
         <v>4.0999999999999996</v>
@@ -999,10 +786,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="E15" s="4">
         <v>2.4</v>
@@ -1016,10 +803,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="E16" s="4">
         <v>1.7</v>
@@ -1033,13 +820,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="E17" s="4">
-        <v>45384</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1050,10 +837,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="E18" s="4">
         <v>0.5</v>
@@ -1067,13 +854,13 @@
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="E19" s="4">
-        <v>193</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1083,1719 +870,2088 @@
       <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="3">
-        <v>391</v>
-      </c>
-      <c r="D20" s="3">
-        <v>40</v>
+      <c r="C20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E20" s="4">
-        <v>175</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>1953</v>
+        <v>1561</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="3">
-        <v>360</v>
-      </c>
-      <c r="D21" s="3">
-        <v>40</v>
+        <v>2</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E21" s="4">
-        <v>175</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>1954</v>
+        <v>1561</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="3">
-        <v>393</v>
-      </c>
-      <c r="D22" s="3">
-        <v>40</v>
+        <v>2</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="E22" s="4">
-        <v>175</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>1955</v>
+        <v>1561</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="3">
-        <v>480</v>
-      </c>
-      <c r="D23" s="3">
-        <v>40</v>
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="E23" s="4">
-        <v>159</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>1956</v>
+        <v>1561</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="3">
-        <v>370</v>
-      </c>
-      <c r="D24" s="3">
-        <v>40</v>
+        <v>2</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E24" s="4">
-        <v>176</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>1957</v>
+        <v>1561</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="3">
-        <v>352</v>
-      </c>
-      <c r="D25" s="3">
-        <v>41</v>
+        <v>2</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="E25" s="4">
-        <v>127</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>1958</v>
+        <v>1953</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="3">
-        <v>361</v>
-      </c>
-      <c r="D26" s="3">
-        <v>41</v>
+        <v>3</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E26" s="4">
-        <v>127</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>2078</v>
+        <v>1953</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="3">
-        <v>34</v>
-      </c>
-      <c r="D27" s="3">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E27" s="4">
-        <v>151</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>2079</v>
+        <v>1953</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="3">
-        <v>81</v>
-      </c>
-      <c r="D28" s="3">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E28" s="4">
-        <v>166</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>2080</v>
+        <v>1953</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="3">
-        <v>81</v>
-      </c>
-      <c r="D29" s="3">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="E29" s="4">
-        <v>166</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>2081</v>
+        <v>1953</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="3">
-        <v>34</v>
-      </c>
-      <c r="D30" s="3">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="E30" s="4">
-        <v>162</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>2082</v>
+        <v>1953</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="3">
-        <v>34</v>
-      </c>
-      <c r="D31" s="3">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="E31" s="4">
-        <v>162</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>2083</v>
+        <v>1953</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="3">
-        <v>79</v>
-      </c>
-      <c r="D32" s="3">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E32" s="4">
-        <v>215</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>2313</v>
+        <v>1954</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="3">
-        <v>336</v>
-      </c>
-      <c r="D33" s="3">
-        <v>38</v>
+        <v>4</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E33" s="4">
-        <v>144</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>2314</v>
+        <v>1954</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="3">
-        <v>495</v>
-      </c>
-      <c r="D34" s="3">
-        <v>40</v>
+        <v>4</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E34" s="4">
-        <v>195</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>2315</v>
+        <v>1955</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="3">
-        <v>378</v>
-      </c>
-      <c r="D35" s="3">
+        <v>5</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E35" s="4">
-        <v>194</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>2316</v>
+        <v>1955</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="3">
-        <v>378</v>
-      </c>
-      <c r="D36" s="3">
-        <v>40</v>
+        <v>5</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E36" s="4">
-        <v>191</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>2317</v>
+        <v>1955</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="3">
-        <v>423</v>
-      </c>
-      <c r="D37" s="3">
-        <v>39</v>
+        <v>5</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="E37" s="4">
-        <v>151</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>2318</v>
+        <v>1955</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="3">
-        <v>38</v>
-      </c>
-      <c r="D38" s="3">
-        <v>38</v>
+        <v>5</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E38" s="4">
-        <v>196</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>2319</v>
+        <v>1956</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="3">
-        <v>349</v>
-      </c>
-      <c r="D39" s="3">
-        <v>39</v>
+        <v>6</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="E39" s="4">
-        <v>195</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>2320</v>
+        <v>1956</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="3">
-        <v>349</v>
-      </c>
-      <c r="D40" s="3">
-        <v>39</v>
+        <v>6</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="E40" s="4">
-        <v>195</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>2321</v>
+        <v>1956</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="3">
-        <v>349</v>
-      </c>
-      <c r="D41" s="3">
-        <v>39</v>
+        <v>6</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E41" s="4">
-        <v>195</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>2322</v>
+        <v>1957</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="3">
-        <v>326</v>
-      </c>
-      <c r="D42" s="3">
-        <v>39</v>
+        <v>7</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E42" s="4">
-        <v>206</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>2323</v>
+        <v>1957</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="3">
-        <v>353</v>
-      </c>
-      <c r="D43" s="3">
-        <v>37</v>
+        <v>7</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E43" s="4">
-        <v>146</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>2324</v>
+        <v>1957</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="3">
-        <v>353</v>
-      </c>
-      <c r="D44" s="3">
-        <v>37</v>
+        <v>7</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="E44" s="4">
-        <v>146</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>2325</v>
+        <v>1957</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="3">
-        <v>350</v>
-      </c>
-      <c r="D45" s="3">
-        <v>37</v>
+        <v>7</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E45" s="4">
-        <v>147</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>2896</v>
+        <v>1957</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="3">
-        <v>361</v>
-      </c>
-      <c r="D46" s="3">
+        <v>7</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E46" s="4">
-        <v>133</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>2897</v>
+        <v>1957</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="3">
-        <v>377</v>
-      </c>
-      <c r="D47" s="3">
+        <v>7</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E47" s="4">
-        <v>162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>2898</v>
+        <v>1957</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" s="3">
-        <v>368</v>
-      </c>
-      <c r="D48" s="3">
+        <v>7</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E48" s="4">
-        <v>155</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>2899</v>
+        <v>1958</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="3">
-        <v>22</v>
-      </c>
-      <c r="D49" s="3">
-        <v>22</v>
-      </c>
-      <c r="E49" s="5"/>
+      <c r="E49" s="4">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="50" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>2900</v>
+        <v>1958</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="3">
-        <v>343</v>
-      </c>
-      <c r="D50" s="3">
-        <v>39</v>
-      </c>
       <c r="E50" s="4">
-        <v>147</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>2901</v>
+        <v>2079</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="3">
-        <v>384</v>
-      </c>
-      <c r="D51" s="3">
-        <v>39</v>
+        <v>9</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E51" s="4">
-        <v>149</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>2902</v>
+        <v>2079</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C52" s="3">
-        <v>348</v>
-      </c>
-      <c r="D52" s="3">
-        <v>38</v>
-      </c>
       <c r="E52" s="4">
-        <v>149</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>3370</v>
+        <v>2079</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="3">
-        <v>453</v>
-      </c>
-      <c r="D53" s="3">
-        <v>42</v>
-      </c>
       <c r="E53" s="4">
-        <v>150</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>3371</v>
+        <v>2079</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C54" s="3">
-        <v>453</v>
-      </c>
-      <c r="D54" s="3">
-        <v>42</v>
-      </c>
       <c r="E54" s="4">
-        <v>151</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>3372</v>
+        <v>2080</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C55" s="3">
-        <v>420</v>
-      </c>
-      <c r="D55" s="3">
+        <v>10</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E55" s="4">
-        <v>164</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>3373</v>
+        <v>2083</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C56" s="3">
-        <v>452</v>
-      </c>
-      <c r="D56" s="3">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="E56" s="4">
-        <v>161</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>3374</v>
+        <v>2083</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C57" s="3">
-        <v>288</v>
-      </c>
-      <c r="D57" s="3">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E57" s="4">
-        <v>132</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>3375</v>
+        <v>2083</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C58" s="3">
-        <v>256</v>
-      </c>
-      <c r="D58" s="3">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="E58" s="4">
-        <v>129</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>3376</v>
+        <v>2083</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C59" s="3">
-        <v>246</v>
-      </c>
-      <c r="D59" s="3">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E59" s="4">
-        <v>132</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>3377</v>
+        <v>2313</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C60" s="3">
-        <v>256</v>
-      </c>
-      <c r="D60" s="3">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E60" s="4">
-        <v>135</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>3378</v>
+        <v>2313</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C61" s="3">
-        <v>245</v>
-      </c>
-      <c r="D61" s="3">
-        <v>37</v>
+        <v>12</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E61" s="4">
-        <v>125</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>3379</v>
+        <v>2313</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C62" s="3">
-        <v>245</v>
-      </c>
-      <c r="D62" s="3">
-        <v>37</v>
+        <v>12</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="E62" s="4">
-        <v>125</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>3380</v>
+        <v>2325</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C63" s="3">
-        <v>245</v>
-      </c>
-      <c r="D63" s="3">
-        <v>37</v>
+        <v>13</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E63" s="4">
-        <v>132</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>3718</v>
+        <v>2325</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C64" s="3">
-        <v>329</v>
-      </c>
-      <c r="D64" s="3">
-        <v>35</v>
+        <v>13</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E64" s="4">
-        <v>117</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>3719</v>
+        <v>2325</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C65" s="3">
-        <v>329</v>
-      </c>
-      <c r="D65" s="3">
-        <v>35</v>
+        <v>13</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="E65" s="4">
-        <v>112</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>3720</v>
+        <v>2325</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C66" s="3">
-        <v>329</v>
-      </c>
-      <c r="D66" s="3">
-        <v>35</v>
+        <v>13</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="E66" s="4">
-        <v>112</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>3721</v>
+        <v>2325</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C67" s="3">
-        <v>329</v>
-      </c>
-      <c r="D67" s="3">
+        <v>13</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E67" s="4">
-        <v>112</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>3722</v>
+        <v>2325</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C68" s="3">
-        <v>330</v>
-      </c>
-      <c r="D68" s="3">
-        <v>35</v>
+        <v>13</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E68" s="4">
-        <v>111</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>3723</v>
+        <v>2325</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C69" s="3">
-        <v>330</v>
-      </c>
-      <c r="D69" s="3">
-        <v>35</v>
+        <v>13</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="E69" s="4">
-        <v>112</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>3724</v>
+        <v>2325</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C70" s="3">
-        <v>313</v>
-      </c>
-      <c r="D70" s="3">
-        <v>40</v>
+        <v>13</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="E70" s="4">
-        <v>149</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>3725</v>
+        <v>2896</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C71" s="3">
-        <v>313</v>
-      </c>
-      <c r="D71" s="3">
-        <v>40</v>
+        <v>14</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="E71" s="4">
-        <v>149</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>3726</v>
+        <v>2896</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C72" s="3">
-        <v>313</v>
-      </c>
-      <c r="D72" s="3">
-        <v>40</v>
+        <v>14</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="E72" s="4">
-        <v>149</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>3727</v>
+        <v>2896</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C73" s="3">
-        <v>313</v>
-      </c>
-      <c r="D73" s="3">
-        <v>40</v>
+        <v>14</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E73" s="4">
-        <v>149</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>3728</v>
+        <v>2902</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C74" s="3">
-        <v>313</v>
-      </c>
-      <c r="D74" s="3">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E74" s="4">
-        <v>149</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>5479</v>
+        <v>2902</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C75" s="3">
-        <v>359</v>
-      </c>
-      <c r="D75" s="3">
-        <v>42</v>
+        <v>15</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E75" s="4">
-        <v>183</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>5480</v>
+        <v>2902</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C76" s="3">
-        <v>26</v>
-      </c>
-      <c r="D76" s="3">
-        <v>26</v>
-      </c>
-      <c r="E76" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="77" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>5481</v>
+        <v>2902</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C77" s="3">
-        <v>34</v>
-      </c>
-      <c r="D77" s="3">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="E77" s="4">
-        <v>131</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>5482</v>
+        <v>2902</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C78" s="3">
-        <v>34</v>
-      </c>
-      <c r="D78" s="3">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E78" s="4">
-        <v>131</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>5483</v>
+        <v>2902</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C79" s="3">
-        <v>38</v>
-      </c>
-      <c r="D79" s="3">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="E79" s="4">
-        <v>159</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>5484</v>
+        <v>3373</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C80" s="3">
-        <v>38</v>
-      </c>
-      <c r="D80" s="3">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E80" s="4">
-        <v>159</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>5485</v>
+        <v>3373</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="3">
-        <v>303</v>
-      </c>
-      <c r="D81" s="3">
-        <v>37</v>
+        <v>16</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E81" s="4">
-        <v>144</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>5486</v>
+        <v>3373</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C82" s="3">
-        <v>303</v>
-      </c>
-      <c r="D82" s="3">
-        <v>37</v>
+        <v>16</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E82" s="4">
-        <v>145</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>5487</v>
+        <v>3373</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C83" s="3">
-        <v>303</v>
-      </c>
-      <c r="D83" s="3">
+        <v>16</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E83" s="4">
-        <v>144</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>5682</v>
+        <v>3377</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C84" s="3">
+        <v>17</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D84" s="3">
-        <v>31</v>
-      </c>
-      <c r="E84" s="5"/>
+      <c r="E84" s="4">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="85" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>5683</v>
+        <v>3377</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C85" s="3">
-        <v>359</v>
-      </c>
-      <c r="D85" s="3">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E85" s="4">
-        <v>130</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>5684</v>
+        <v>3377</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C86" s="3">
-        <v>378</v>
-      </c>
-      <c r="D86" s="3">
-        <v>38</v>
+        <v>17</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="E86" s="4">
-        <v>164</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>6195</v>
+        <v>3377</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C87" s="3">
-        <v>31</v>
-      </c>
-      <c r="D87" s="3">
-        <v>31</v>
-      </c>
-      <c r="E87" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E87" s="4">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="88" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>6196</v>
+        <v>3377</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C88" s="3">
-        <v>76</v>
-      </c>
-      <c r="D88" s="3">
-        <v>38</v>
+        <v>17</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="E88" s="4">
-        <v>114</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>6294</v>
+        <v>3377</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C89" s="3">
-        <v>325</v>
-      </c>
-      <c r="D89" s="3">
-        <v>39</v>
+        <v>17</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E89" s="4">
-        <v>155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>6295</v>
+        <v>3377</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C90" s="3">
-        <v>30</v>
-      </c>
-      <c r="D90" s="3">
-        <v>30</v>
+        <v>17</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E90" s="4">
-        <v>159</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>6296</v>
+        <v>3377</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C91" s="3">
-        <v>34</v>
-      </c>
-      <c r="D91" s="3">
-        <v>34</v>
+        <v>17</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="E91" s="4">
-        <v>158</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>6721</v>
+        <v>3378</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C92" s="3">
-        <v>37</v>
-      </c>
-      <c r="D92" s="3">
-        <v>37</v>
+        <v>18</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E92" s="4">
-        <v>113</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>6722</v>
+        <v>3378</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C93" s="3">
-        <v>318</v>
-      </c>
-      <c r="D93" s="3">
-        <v>38</v>
+        <v>18</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E93" s="4">
-        <v>117</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>6723</v>
+        <v>3378</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C94" s="3">
-        <v>37</v>
-      </c>
-      <c r="D94" s="3">
-        <v>37</v>
+        <v>18</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E94" s="4">
-        <v>113</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>6724</v>
+        <v>3378</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C95" s="3">
-        <v>37</v>
-      </c>
-      <c r="D95" s="3">
-        <v>37</v>
+        <v>18</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E95" s="4">
-        <v>113</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>6787</v>
+        <v>3379</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C96" s="3">
-        <v>300</v>
-      </c>
-      <c r="D96" s="3">
-        <v>38</v>
+        <v>19</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E96" s="4">
-        <v>138</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>6788</v>
+        <v>3380</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C97" s="3">
-        <v>300</v>
-      </c>
-      <c r="D97" s="3">
-        <v>38</v>
+        <v>20</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="E97" s="4">
-        <v>138</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>6789</v>
+        <v>3719</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C98" s="3">
-        <v>299</v>
-      </c>
-      <c r="D98" s="3">
-        <v>38</v>
+        <v>21</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E98" s="4">
-        <v>168</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>6896</v>
+        <v>3719</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C99" s="3">
-        <v>319</v>
-      </c>
-      <c r="D99" s="3">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E99" s="4">
-        <v>157</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>6897</v>
+        <v>3719</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C100" s="3">
-        <v>319</v>
-      </c>
-      <c r="D100" s="3">
-        <v>39</v>
+        <v>21</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="E100" s="4">
-        <v>156</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>7276</v>
+        <v>3719</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C101" s="3">
-        <v>379</v>
-      </c>
-      <c r="D101" s="3">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="E101" s="4">
-        <v>151</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>7277</v>
+        <v>3719</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C102" s="3">
-        <v>353</v>
-      </c>
-      <c r="D102" s="3">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="E102" s="4">
-        <v>119</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>7278</v>
+        <v>3719</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C103" s="3">
-        <v>391</v>
-      </c>
-      <c r="D103" s="3">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E103" s="4">
-        <v>177</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>7447</v>
+        <v>3719</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C104" s="3">
-        <v>382</v>
-      </c>
-      <c r="D104" s="3">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="E104" s="4">
-        <v>126</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>7448</v>
+        <v>3719</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C105" s="3">
-        <v>263</v>
-      </c>
-      <c r="D105" s="3">
-        <v>35</v>
+        <v>21</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="E105" s="4">
-        <v>199</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>7449</v>
+        <v>3719</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C106" s="3">
-        <v>372</v>
-      </c>
-      <c r="D106" s="3">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="E106" s="4">
-        <v>116</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>7450</v>
+        <v>3719</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C107" s="3">
-        <v>263</v>
-      </c>
-      <c r="D107" s="3">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E107" s="4">
-        <v>186</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>7634</v>
+        <v>3719</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C108" s="3">
-        <v>296</v>
-      </c>
-      <c r="D108" s="3">
-        <v>34</v>
+        <v>21</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E108" s="4">
-        <v>126</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>7635</v>
+        <v>3719</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C109" s="3">
-        <v>291</v>
-      </c>
-      <c r="D109" s="3">
-        <v>34</v>
+        <v>21</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="E109" s="4">
-        <v>121</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>7636</v>
+        <v>3719</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C110" s="3">
-        <v>200</v>
-      </c>
-      <c r="D110" s="3">
-        <v>38</v>
+        <v>21</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="E110" s="4">
-        <v>135</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>7637</v>
+        <v>3719</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C111" s="3">
-        <v>292</v>
-      </c>
-      <c r="D111" s="3">
-        <v>76</v>
+        <v>21</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="E111" s="4">
-        <v>153</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>8749</v>
+        <v>3719</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C112" s="3">
-        <v>32</v>
-      </c>
-      <c r="D112" s="3">
-        <v>32</v>
-      </c>
-      <c r="E112" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E112" s="4">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="113" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>8750</v>
+        <v>3719</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C113" s="3">
-        <v>282</v>
-      </c>
-      <c r="D113" s="3">
-        <v>37</v>
+        <v>21</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="E113" s="4">
-        <v>108</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>8751</v>
+        <v>3720</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C114" s="3">
-        <v>32</v>
-      </c>
-      <c r="D114" s="3">
-        <v>32</v>
-      </c>
-      <c r="E114" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E114" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="115" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>8752</v>
+        <v>5483</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C115" s="3">
-        <v>297</v>
-      </c>
-      <c r="D115" s="3">
-        <v>40</v>
+        <v>23</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="E115" s="4">
-        <v>157</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>8753</v>
+        <v>5483</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C116" s="3">
-        <v>223</v>
-      </c>
-      <c r="D116" s="3">
-        <v>40</v>
+        <v>23</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="E116" s="4">
-        <v>150</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>9774</v>
+        <v>5483</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C117" s="3">
-        <v>34</v>
-      </c>
-      <c r="D117" s="3">
-        <v>34</v>
+        <v>23</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="E117" s="4">
-        <v>210</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>9775</v>
+        <v>5483</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C118" s="3">
-        <v>33</v>
-      </c>
-      <c r="D118" s="3">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="E118" s="4">
-        <v>194</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>9776</v>
+        <v>6195</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C119" s="3">
-        <v>31</v>
-      </c>
-      <c r="D119" s="3">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="E119" s="4">
-        <v>160</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>9777</v>
+        <v>6195</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C120" s="3">
-        <v>375</v>
-      </c>
-      <c r="D120" s="3">
-        <v>37</v>
+        <v>24</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="E120" s="4">
-        <v>154</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
+        <v>6195</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E121" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>6195</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E122" s="4">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>6721</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E123" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>6721</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E124" s="4">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>6721</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E125" s="4">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>6721</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E126" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>9775</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E127" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>9775</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E128" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>9775</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E129" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>9775</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E130" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>9775</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E131" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>9775</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E132" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>9775</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E133" s="4">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>9775</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E134" s="4">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
         <v>9778</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C121" s="3">
-        <v>459</v>
-      </c>
-      <c r="D121" s="3">
+      <c r="B135" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E135" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>9778</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E136" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>9778</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E137" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>9778</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E138" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>9778</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D139" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E121" s="4">
-        <v>175</v>
+      <c r="E139" s="4">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>9778</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E140" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>9778</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E141" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>9778</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E142" s="4">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gigalskiy\IdeaProjects\repairtime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08F7D49-E9D8-494F-9A34-40C00D667FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4B3732-DA37-4AE7-B0D0-C98E60E508B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20070" yWindow="855" windowWidth="17190" windowHeight="19230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="50">
   <si>
     <t>FORD / ESCORT ('81) / 1,3 / JGA 43 kW (58 л.с.) 4800 об/мин (N) (S) (SF) 1984-1985</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>Замена дроссельной заслонки</t>
+  </si>
+  <si>
+    <t>AUDI / S5 CABRIOLET (8F7)  (09-17) / 5,0 TFSI / CGWC 345 kW (333 л.с.) 5500 об/мин R-Cat 2011-2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDI / S5 CABRIOLET (8F7)  (09-17) / 5,0 TFSI / WWW 245 kW (333 л.с.) 5500 об/мин R-Cat 2011-2014 </t>
   </si>
 </sst>
 </file>
@@ -528,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,7 +908,7 @@
         <v>1561</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>28</v>
@@ -919,7 +925,7 @@
         <v>1561</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>30</v>
@@ -936,7 +942,7 @@
         <v>1561</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>30</v>
@@ -953,7 +959,7 @@
         <v>1561</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>29</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gigalskiy\IdeaProjects\repairtime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4B3732-DA37-4AE7-B0D0-C98E60E508B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AF8973-A5E6-480C-B94C-9E4A398499DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20070" yWindow="855" windowWidth="17190" windowHeight="19230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,10 +548,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>3306</v>
+        <v>1054</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>28</v>
@@ -560,15 +560,15 @@
         <v>31</v>
       </c>
       <c r="E1" s="4">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>3306</v>
+        <v>1054</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>28</v>
@@ -577,610 +577,610 @@
         <v>32</v>
       </c>
       <c r="E2" s="4">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>3306</v>
+        <v>1054</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E3" s="4">
-        <v>3.5</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3306</v>
+        <v>1054</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>3306</v>
+        <v>1054</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E5" s="4">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>3306</v>
+        <v>1054</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E6" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>3306</v>
+        <v>1054</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E7" s="4">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>3306</v>
+        <v>1054</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E8" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>3306</v>
+        <v>1561</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E9" s="4">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>3306</v>
+        <v>1561</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E10" s="4">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>3306</v>
+        <v>1561</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E11" s="4">
-        <v>0.6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>1054</v>
+        <v>1561</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E12" s="4">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>1054</v>
+        <v>1561</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E13" s="4">
-        <v>0.15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>1054</v>
+        <v>1561</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="4">
         <v>1</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="4">
-        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>1054</v>
+        <v>1953</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E15" s="4">
-        <v>2.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>1054</v>
+        <v>1953</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E16" s="4">
-        <v>1.7</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>1054</v>
+        <v>1953</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E17" s="4">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>1054</v>
+        <v>1953</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E18" s="4">
-        <v>0.5</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>1054</v>
+        <v>1953</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E19" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>1561</v>
+        <v>1953</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E20" s="4">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>1561</v>
+        <v>1953</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E21" s="4">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>1561</v>
+        <v>1954</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E22" s="4">
-        <v>6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>1561</v>
+        <v>1954</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E23" s="4">
-        <v>1.7</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>1561</v>
+        <v>1955</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E24" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>1561</v>
+        <v>1955</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E25" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E26" s="4">
-        <v>0.25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E27" s="4">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>1953</v>
+        <v>1956</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E28" s="4">
-        <v>4.2</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>1953</v>
+        <v>1956</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E29" s="4">
-        <v>5.2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>1953</v>
+        <v>1956</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="4">
         <v>3</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="4">
-        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>1953</v>
+        <v>1957</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E31" s="4">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>1953</v>
+        <v>1957</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E32" s="4">
-        <v>1.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>1954</v>
+        <v>1957</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E33" s="4">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>1954</v>
+        <v>1957</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E34" s="4">
-        <v>0.1</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E35" s="4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E36" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E37" s="4">
-        <v>5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>1955</v>
+        <v>1958</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>28</v>
@@ -1189,185 +1189,185 @@
         <v>31</v>
       </c>
       <c r="E38" s="4">
-        <v>0.25</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E39" s="4">
-        <v>2.2999999999999998</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>1956</v>
+        <v>2079</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E40" s="4">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>1956</v>
+        <v>2079</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E41" s="4">
-        <v>3</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>1957</v>
+        <v>2079</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E42" s="4">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>1957</v>
+        <v>2079</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E43" s="4">
-        <v>0.25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>1957</v>
+        <v>2080</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E44" s="4">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>1957</v>
+        <v>2083</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E45" s="4">
-        <v>4.4000000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>1957</v>
+        <v>2083</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E46" s="4">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>1957</v>
+        <v>2083</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E47" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>1957</v>
+        <v>2083</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E48" s="4">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>1958</v>
+        <v>2313</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>28</v>
@@ -1376,15 +1376,15 @@
         <v>31</v>
       </c>
       <c r="E49" s="4">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>1958</v>
+        <v>2313</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>28</v>
@@ -1393,219 +1393,219 @@
         <v>32</v>
       </c>
       <c r="E50" s="4">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>2079</v>
+        <v>2313</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E51" s="4">
-        <v>0.25</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>2079</v>
+        <v>2325</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E52" s="4">
-        <v>2.2999999999999998</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>2079</v>
+        <v>2325</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E53" s="4">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>2079</v>
+        <v>2325</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E54" s="4">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>2080</v>
+        <v>2325</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E55" s="4">
-        <v>0.5</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>2083</v>
+        <v>2325</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E56" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>2083</v>
+        <v>2325</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E57" s="4">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>2083</v>
+        <v>2325</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E58" s="4">
-        <v>5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>2083</v>
+        <v>2325</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E59" s="4">
-        <v>0.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>2313</v>
+        <v>2896</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E60" s="4">
-        <v>0.4</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>2313</v>
+        <v>2896</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E61" s="4">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>2313</v>
+        <v>2896</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E62" s="4">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>2325</v>
+        <v>2902</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>28</v>
@@ -1614,15 +1614,15 @@
         <v>31</v>
       </c>
       <c r="E63" s="4">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>2325</v>
+        <v>2902</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>28</v>
@@ -1636,10 +1636,10 @@
     </row>
     <row r="65" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>2325</v>
+        <v>2902</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>28</v>
@@ -1648,245 +1648,245 @@
         <v>33</v>
       </c>
       <c r="E65" s="4">
-        <v>3.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>2325</v>
+        <v>2902</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E66" s="4">
-        <v>2.2999999999999998</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>2325</v>
+        <v>2902</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E67" s="4">
-        <v>1.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>2325</v>
+        <v>2902</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E68" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>2325</v>
+        <v>3306</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E69" s="4">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>2325</v>
+        <v>3306</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E70" s="4">
-        <v>2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>2896</v>
+        <v>3306</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E71" s="4">
-        <v>2.2999999999999998</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>2896</v>
+        <v>3306</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E72" s="4">
-        <v>1.5</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>2896</v>
+        <v>3306</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E73" s="4">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>2902</v>
+        <v>3306</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E74" s="4">
-        <v>0.25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>2902</v>
+        <v>3306</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E75" s="4">
-        <v>0.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>2902</v>
+        <v>3306</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E76" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>2902</v>
+        <v>3306</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E77" s="4">
-        <v>1.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>2902</v>
+        <v>3306</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E78" s="4">
-        <v>8</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>2902</v>
+        <v>3306</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E79" s="4">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gigalskiy\IdeaProjects\repairtime\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67134\IdeaProjects\repairtime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AF8973-A5E6-480C-B94C-9E4A398499DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64908D8-432E-4860-BA2A-41E9FE73C7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20070" yWindow="855" windowWidth="17190" windowHeight="19230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="57">
   <si>
     <t>FORD / ESCORT ('81) / 1,3 / JGA 43 kW (58 л.с.) 4800 об/мин (N) (S) (SF) 1984-1985</t>
   </si>
@@ -175,6 +175,27 @@
   </si>
   <si>
     <t xml:space="preserve">AUDI / S5 CABRIOLET (8F7)  (09-17) / 5,0 TFSI / WWW 245 kW (333 л.с.) 5500 об/мин R-Cat 2011-2014 </t>
+  </si>
+  <si>
+    <t>AUDI / Q7 (4LB)  (06-15) / 6,0D V12 TDI CR / CCGA 368 kW (500 л.с.) 3750 об/мин 2008-2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDI / Q7 (4MB)  (15-19) / 3,0 TFSI / CREC 245 kW (333 л.с.) 5500 об/мин R-Cat 2015-2018 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDI / Q7 (4MB)  (15-19) / 3,0D 45 TDI / CVMD 183 kW (249 л.с.) 2019-2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDI / Q7 (4MB)  (15-19) / 3,0D TDI CR / CRTC 200 kW (272 л.с.) 3250 об/мин 2015-2018 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDI / Q7 (4MB)  (15-19) / 3,0D TDI CR / CZZA 160 kW (218 л.с.) 3250 об/мин 2015-2018 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDI / Q7 (4MB)  (15-19) / 3,0D e-tron PHEV / CVZA 190 kW (258 л.с.) 3250 об/мин R-Cat 2015-2018 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDI / Q7 (4MB)  (15-19) / 3,0D TDI CR / CZZB 155 kW (211 л.с.) 3000 об/мин 2015-2018 </t>
   </si>
 </sst>
 </file>
@@ -532,21 +553,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E142"/>
+  <dimension ref="A1:E163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="81" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="5"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>1054</v>
       </c>
@@ -563,7 +584,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1054</v>
       </c>
@@ -580,7 +601,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1054</v>
       </c>
@@ -597,7 +618,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1054</v>
       </c>
@@ -614,7 +635,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1054</v>
       </c>
@@ -631,7 +652,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1054</v>
       </c>
@@ -648,7 +669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1054</v>
       </c>
@@ -665,7 +686,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1054</v>
       </c>
@@ -682,7 +703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1561</v>
       </c>
@@ -699,7 +720,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1561</v>
       </c>
@@ -716,7 +737,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1561</v>
       </c>
@@ -733,7 +754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1561</v>
       </c>
@@ -750,7 +771,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1561</v>
       </c>
@@ -767,7 +788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1561</v>
       </c>
@@ -784,7 +805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1953</v>
       </c>
@@ -801,7 +822,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1953</v>
       </c>
@@ -818,7 +839,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1953</v>
       </c>
@@ -835,7 +856,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1953</v>
       </c>
@@ -852,7 +873,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1953</v>
       </c>
@@ -869,7 +890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1953</v>
       </c>
@@ -886,7 +907,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1953</v>
       </c>
@@ -903,7 +924,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1954</v>
       </c>
@@ -920,7 +941,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1954</v>
       </c>
@@ -937,7 +958,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1955</v>
       </c>
@@ -954,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1955</v>
       </c>
@@ -971,7 +992,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1955</v>
       </c>
@@ -988,7 +1009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1955</v>
       </c>
@@ -1005,7 +1026,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1956</v>
       </c>
@@ -1022,7 +1043,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1956</v>
       </c>
@@ -1039,7 +1060,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1956</v>
       </c>
@@ -1056,7 +1077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1957</v>
       </c>
@@ -1073,7 +1094,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1957</v>
       </c>
@@ -1090,7 +1111,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>1957</v>
       </c>
@@ -1107,7 +1128,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>1957</v>
       </c>
@@ -1124,7 +1145,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>1957</v>
       </c>
@@ -1141,7 +1162,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>1957</v>
       </c>
@@ -1158,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>1957</v>
       </c>
@@ -1175,7 +1196,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>1958</v>
       </c>
@@ -1192,7 +1213,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>1958</v>
       </c>
@@ -1209,7 +1230,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>2079</v>
       </c>
@@ -1226,7 +1247,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>2079</v>
       </c>
@@ -1243,7 +1264,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>2079</v>
       </c>
@@ -1260,7 +1281,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>2079</v>
       </c>
@@ -1277,7 +1298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>2080</v>
       </c>
@@ -1294,7 +1315,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>2083</v>
       </c>
@@ -1311,7 +1332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>2083</v>
       </c>
@@ -1328,7 +1349,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>2083</v>
       </c>
@@ -1345,7 +1366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>2083</v>
       </c>
@@ -1362,7 +1383,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>2313</v>
       </c>
@@ -1379,7 +1400,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>2313</v>
       </c>
@@ -1396,7 +1417,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>2313</v>
       </c>
@@ -1413,7 +1434,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>2325</v>
       </c>
@@ -1430,7 +1451,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>2325</v>
       </c>
@@ -1447,7 +1468,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>2325</v>
       </c>
@@ -1464,7 +1485,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>2325</v>
       </c>
@@ -1481,7 +1502,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>2325</v>
       </c>
@@ -1498,7 +1519,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>2325</v>
       </c>
@@ -1515,7 +1536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>2325</v>
       </c>
@@ -1532,7 +1553,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>2325</v>
       </c>
@@ -1549,7 +1570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>2896</v>
       </c>
@@ -1566,7 +1587,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>2896</v>
       </c>
@@ -1583,7 +1604,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>2896</v>
       </c>
@@ -1600,7 +1621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>2902</v>
       </c>
@@ -1617,7 +1638,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>2902</v>
       </c>
@@ -1634,7 +1655,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>2902</v>
       </c>
@@ -1651,7 +1672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>2902</v>
       </c>
@@ -1668,7 +1689,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>2902</v>
       </c>
@@ -1685,7 +1706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>2902</v>
       </c>
@@ -1702,7 +1723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>3306</v>
       </c>
@@ -1719,7 +1740,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>3306</v>
       </c>
@@ -1736,7 +1757,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>3306</v>
       </c>
@@ -1753,7 +1774,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>3306</v>
       </c>
@@ -1770,7 +1791,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>3306</v>
       </c>
@@ -1787,7 +1808,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>3306</v>
       </c>
@@ -1804,7 +1825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>3306</v>
       </c>
@@ -1821,7 +1842,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>3306</v>
       </c>
@@ -1838,7 +1859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>3306</v>
       </c>
@@ -1855,7 +1876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>3306</v>
       </c>
@@ -1872,7 +1893,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>3306</v>
       </c>
@@ -1889,7 +1910,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>3373</v>
       </c>
@@ -1906,7 +1927,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>3373</v>
       </c>
@@ -1923,7 +1944,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>3373</v>
       </c>
@@ -1940,7 +1961,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>3373</v>
       </c>
@@ -1957,7 +1978,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>3377</v>
       </c>
@@ -1974,7 +1995,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>3377</v>
       </c>
@@ -1991,7 +2012,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>3377</v>
       </c>
@@ -2008,7 +2029,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>3377</v>
       </c>
@@ -2025,7 +2046,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>3377</v>
       </c>
@@ -2042,7 +2063,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>3377</v>
       </c>
@@ -2059,7 +2080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>3377</v>
       </c>
@@ -2076,7 +2097,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>3377</v>
       </c>
@@ -2093,7 +2114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>3378</v>
       </c>
@@ -2110,7 +2131,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>3378</v>
       </c>
@@ -2127,7 +2148,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>3378</v>
       </c>
@@ -2144,7 +2165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>3378</v>
       </c>
@@ -2161,7 +2182,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>3379</v>
       </c>
@@ -2178,7 +2199,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>3380</v>
       </c>
@@ -2195,7 +2216,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>3719</v>
       </c>
@@ -2212,7 +2233,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>3719</v>
       </c>
@@ -2229,7 +2250,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>3719</v>
       </c>
@@ -2246,7 +2267,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>3719</v>
       </c>
@@ -2263,7 +2284,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>3719</v>
       </c>
@@ -2280,7 +2301,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>3719</v>
       </c>
@@ -2297,7 +2318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>3719</v>
       </c>
@@ -2314,7 +2335,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>3719</v>
       </c>
@@ -2331,7 +2352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>3719</v>
       </c>
@@ -2348,7 +2369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>3719</v>
       </c>
@@ -2365,7 +2386,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>3719</v>
       </c>
@@ -2382,7 +2403,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>3719</v>
       </c>
@@ -2399,7 +2420,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>3719</v>
       </c>
@@ -2416,7 +2437,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>3719</v>
       </c>
@@ -2433,7 +2454,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>3719</v>
       </c>
@@ -2450,7 +2471,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>3719</v>
       </c>
@@ -2467,7 +2488,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>3720</v>
       </c>
@@ -2484,7 +2505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>5483</v>
       </c>
@@ -2501,7 +2522,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>5483</v>
       </c>
@@ -2518,7 +2539,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>5483</v>
       </c>
@@ -2535,7 +2556,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>5483</v>
       </c>
@@ -2552,7 +2573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>6195</v>
       </c>
@@ -2569,7 +2590,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>6195</v>
       </c>
@@ -2586,7 +2607,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>6195</v>
       </c>
@@ -2603,7 +2624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>6195</v>
       </c>
@@ -2620,7 +2641,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>6721</v>
       </c>
@@ -2637,7 +2658,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>6721</v>
       </c>
@@ -2654,7 +2675,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>6721</v>
       </c>
@@ -2671,7 +2692,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>6721</v>
       </c>
@@ -2688,7 +2709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>9775</v>
       </c>
@@ -2705,7 +2726,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>9775</v>
       </c>
@@ -2722,7 +2743,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>9775</v>
       </c>
@@ -2739,7 +2760,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>9775</v>
       </c>
@@ -2756,7 +2777,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>9775</v>
       </c>
@@ -2773,7 +2794,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>9775</v>
       </c>
@@ -2790,7 +2811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>9775</v>
       </c>
@@ -2807,7 +2828,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>9775</v>
       </c>
@@ -2824,7 +2845,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>9778</v>
       </c>
@@ -2841,7 +2862,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>9778</v>
       </c>
@@ -2858,7 +2879,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>9778</v>
       </c>
@@ -2875,7 +2896,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>9778</v>
       </c>
@@ -2892,7 +2913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>9778</v>
       </c>
@@ -2909,7 +2930,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>9778</v>
       </c>
@@ -2926,7 +2947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>9778</v>
       </c>
@@ -2943,7 +2964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>9778</v>
       </c>
@@ -2958,6 +2979,363 @@
       </c>
       <c r="E142" s="4">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
+        <v>1446</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E143" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
+        <v>1446</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E144" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
+        <v>1446</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E145" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
+        <v>1446</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E146" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="1">
+        <v>1446</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E147" s="4">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
+        <v>1446</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E148" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
+        <v>1446</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E149" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
+        <v>1446</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E150" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
+        <v>1449</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E151" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
+        <v>1449</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E152" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
+        <v>1450</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E153" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
+        <v>1450</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E154" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="1">
+        <v>1454</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E155" s="4">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
+        <v>1454</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E156" s="4">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="1">
+        <v>1459</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E157" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="1">
+        <v>1459</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E158" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
+        <v>1453</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E159" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
+        <v>1460</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E160" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="1">
+        <v>1460</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E161" s="4">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="1">
+        <v>1460</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E162" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="1">
+        <v>1460</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E163" s="4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67134\IdeaProjects\repairtime\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gigalskiy\IdeaProjects\repairtime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64908D8-432E-4860-BA2A-41E9FE73C7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56925E1-013E-42A7-BB08-16581609F498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="63">
   <si>
     <t>FORD / ESCORT ('81) / 1,3 / JGA 43 kW (58 л.с.) 4800 об/мин (N) (S) (SF) 1984-1985</t>
   </si>
@@ -196,6 +196,24 @@
   </si>
   <si>
     <t xml:space="preserve">AUDI / Q7 (4MB)  (15-19) / 3,0D TDI CR / CZZB 155 kW (211 л.с.) 3000 об/мин 2015-2018 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMW / 3 SERIES (F30/31)  (12-19) / 2,0D 320d / B47 D20A 100 kW (136 л.с.) 2015-2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDI / Q8(4MN) (18-) / 3,0D 50 TDI MHEV / DHXA 210 kW (286 л.с.) 3500 об/мин 2018-2021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDI / Q8(4MN) (18-) / 3,0 55 TFSI MHEV / DCBD 250 kW (340 л.с.) 5000 об/мин R-Cat 2019-2021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDI / Q5 (FYB)  (17-20) / 3,0D 45 TDI / DCPE 170 kW (231 л.с.) 3250 об/мин 2019-2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDI / Q5 (FYB)  (17-20) / 3,0D 50 TDI / DCPC 210 kW (286 л.с.) 3750 об/мин 2019-2020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDI / Q5 (FYB)  (17-20) / 3,0D TDI CR / DCPC 210 kW (286 л.с.) 3750 об/мин 2017-2019 </t>
   </si>
 </sst>
 </file>
@@ -553,21 +571,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E163"/>
+  <dimension ref="A1:E186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B167" sqref="B167"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C184" sqref="C184:E186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="81" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="5"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1054</v>
       </c>
@@ -584,7 +602,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1054</v>
       </c>
@@ -601,7 +619,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1054</v>
       </c>
@@ -618,7 +636,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1054</v>
       </c>
@@ -635,7 +653,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1054</v>
       </c>
@@ -652,7 +670,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1054</v>
       </c>
@@ -669,7 +687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1054</v>
       </c>
@@ -686,7 +704,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1054</v>
       </c>
@@ -703,7 +721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1561</v>
       </c>
@@ -720,7 +738,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1561</v>
       </c>
@@ -737,7 +755,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1561</v>
       </c>
@@ -754,7 +772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1561</v>
       </c>
@@ -771,7 +789,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1561</v>
       </c>
@@ -788,7 +806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1561</v>
       </c>
@@ -805,7 +823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1953</v>
       </c>
@@ -822,7 +840,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1953</v>
       </c>
@@ -839,7 +857,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1953</v>
       </c>
@@ -856,7 +874,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1953</v>
       </c>
@@ -873,7 +891,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1953</v>
       </c>
@@ -890,7 +908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1953</v>
       </c>
@@ -907,7 +925,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1953</v>
       </c>
@@ -924,7 +942,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1954</v>
       </c>
@@ -941,7 +959,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1954</v>
       </c>
@@ -958,7 +976,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1955</v>
       </c>
@@ -975,7 +993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1955</v>
       </c>
@@ -992,7 +1010,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1955</v>
       </c>
@@ -1009,7 +1027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1955</v>
       </c>
@@ -1026,7 +1044,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1956</v>
       </c>
@@ -1043,7 +1061,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1956</v>
       </c>
@@ -1060,7 +1078,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1956</v>
       </c>
@@ -1077,7 +1095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1957</v>
       </c>
@@ -1094,7 +1112,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1957</v>
       </c>
@@ -1111,7 +1129,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1957</v>
       </c>
@@ -1128,7 +1146,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1957</v>
       </c>
@@ -1145,7 +1163,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1957</v>
       </c>
@@ -1162,7 +1180,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1957</v>
       </c>
@@ -1179,7 +1197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1957</v>
       </c>
@@ -1196,7 +1214,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1958</v>
       </c>
@@ -1213,7 +1231,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1958</v>
       </c>
@@ -1230,7 +1248,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2079</v>
       </c>
@@ -1247,7 +1265,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2079</v>
       </c>
@@ -1264,7 +1282,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2079</v>
       </c>
@@ -1281,7 +1299,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2079</v>
       </c>
@@ -1298,7 +1316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2080</v>
       </c>
@@ -1315,7 +1333,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2083</v>
       </c>
@@ -1332,7 +1350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2083</v>
       </c>
@@ -1349,7 +1367,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2083</v>
       </c>
@@ -1366,7 +1384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2083</v>
       </c>
@@ -1383,7 +1401,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2313</v>
       </c>
@@ -1400,7 +1418,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2313</v>
       </c>
@@ -1417,7 +1435,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2313</v>
       </c>
@@ -1434,7 +1452,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2325</v>
       </c>
@@ -1451,7 +1469,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2325</v>
       </c>
@@ -1468,7 +1486,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2325</v>
       </c>
@@ -1485,7 +1503,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2325</v>
       </c>
@@ -1502,7 +1520,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2325</v>
       </c>
@@ -1519,7 +1537,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2325</v>
       </c>
@@ -1536,7 +1554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2325</v>
       </c>
@@ -1553,7 +1571,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2325</v>
       </c>
@@ -1570,7 +1588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2896</v>
       </c>
@@ -1587,7 +1605,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2896</v>
       </c>
@@ -1604,7 +1622,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2896</v>
       </c>
@@ -1621,7 +1639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2902</v>
       </c>
@@ -1638,7 +1656,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2902</v>
       </c>
@@ -1655,7 +1673,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2902</v>
       </c>
@@ -1672,7 +1690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2902</v>
       </c>
@@ -1689,7 +1707,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2902</v>
       </c>
@@ -1706,7 +1724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2902</v>
       </c>
@@ -1723,7 +1741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>3306</v>
       </c>
@@ -1740,7 +1758,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>3306</v>
       </c>
@@ -1757,7 +1775,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>3306</v>
       </c>
@@ -1774,7 +1792,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>3306</v>
       </c>
@@ -1791,7 +1809,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>3306</v>
       </c>
@@ -1808,7 +1826,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>3306</v>
       </c>
@@ -1825,7 +1843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>3306</v>
       </c>
@@ -1842,7 +1860,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>3306</v>
       </c>
@@ -1859,7 +1877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>3306</v>
       </c>
@@ -1876,7 +1894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>3306</v>
       </c>
@@ -1893,7 +1911,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>3306</v>
       </c>
@@ -1910,7 +1928,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>3373</v>
       </c>
@@ -1927,7 +1945,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>3373</v>
       </c>
@@ -1944,7 +1962,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>3373</v>
       </c>
@@ -1961,7 +1979,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>3373</v>
       </c>
@@ -1978,7 +1996,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>3377</v>
       </c>
@@ -1995,7 +2013,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>3377</v>
       </c>
@@ -2012,7 +2030,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>3377</v>
       </c>
@@ -2029,7 +2047,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>3377</v>
       </c>
@@ -2046,7 +2064,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>3377</v>
       </c>
@@ -2063,7 +2081,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>3377</v>
       </c>
@@ -2080,7 +2098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>3377</v>
       </c>
@@ -2097,7 +2115,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>3377</v>
       </c>
@@ -2114,7 +2132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>3378</v>
       </c>
@@ -2131,7 +2149,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>3378</v>
       </c>
@@ -2148,7 +2166,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>3378</v>
       </c>
@@ -2165,7 +2183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>3378</v>
       </c>
@@ -2182,7 +2200,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>3379</v>
       </c>
@@ -2199,7 +2217,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>3380</v>
       </c>
@@ -2216,7 +2234,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>3719</v>
       </c>
@@ -2233,7 +2251,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>3719</v>
       </c>
@@ -2250,7 +2268,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>3719</v>
       </c>
@@ -2267,7 +2285,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>3719</v>
       </c>
@@ -2284,7 +2302,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>3719</v>
       </c>
@@ -2301,7 +2319,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>3719</v>
       </c>
@@ -2318,7 +2336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>3719</v>
       </c>
@@ -2335,7 +2353,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>3719</v>
       </c>
@@ -2352,7 +2370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>3719</v>
       </c>
@@ -2369,7 +2387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>3719</v>
       </c>
@@ -2386,7 +2404,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>3719</v>
       </c>
@@ -2403,7 +2421,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>3719</v>
       </c>
@@ -2420,7 +2438,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>3719</v>
       </c>
@@ -2437,7 +2455,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>3719</v>
       </c>
@@ -2454,7 +2472,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>3719</v>
       </c>
@@ -2471,7 +2489,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>3719</v>
       </c>
@@ -2488,7 +2506,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>3720</v>
       </c>
@@ -2505,7 +2523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>5483</v>
       </c>
@@ -2522,7 +2540,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>5483</v>
       </c>
@@ -2539,7 +2557,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>5483</v>
       </c>
@@ -2556,7 +2574,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>5483</v>
       </c>
@@ -2573,7 +2591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>6195</v>
       </c>
@@ -2590,7 +2608,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>6195</v>
       </c>
@@ -2607,7 +2625,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>6195</v>
       </c>
@@ -2624,7 +2642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>6195</v>
       </c>
@@ -2641,7 +2659,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>6721</v>
       </c>
@@ -2658,7 +2676,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>6721</v>
       </c>
@@ -2675,7 +2693,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>6721</v>
       </c>
@@ -2692,7 +2710,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>6721</v>
       </c>
@@ -2709,7 +2727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>9775</v>
       </c>
@@ -2726,7 +2744,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>9775</v>
       </c>
@@ -2743,7 +2761,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>9775</v>
       </c>
@@ -2760,7 +2778,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>9775</v>
       </c>
@@ -2777,7 +2795,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>9775</v>
       </c>
@@ -2794,7 +2812,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>9775</v>
       </c>
@@ -2811,7 +2829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>9775</v>
       </c>
@@ -2828,7 +2846,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>9775</v>
       </c>
@@ -2845,7 +2863,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>9778</v>
       </c>
@@ -2862,7 +2880,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>9778</v>
       </c>
@@ -2879,7 +2897,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>9778</v>
       </c>
@@ -2896,7 +2914,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>9778</v>
       </c>
@@ -2913,7 +2931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>9778</v>
       </c>
@@ -2930,7 +2948,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>9778</v>
       </c>
@@ -2947,7 +2965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>9778</v>
       </c>
@@ -2964,7 +2982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>9778</v>
       </c>
@@ -2981,7 +2999,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>1446</v>
       </c>
@@ -2998,7 +3016,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>1446</v>
       </c>
@@ -3015,7 +3033,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>1446</v>
       </c>
@@ -3032,7 +3050,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>1446</v>
       </c>
@@ -3049,7 +3067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>1446</v>
       </c>
@@ -3066,7 +3084,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>1446</v>
       </c>
@@ -3083,7 +3101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>1446</v>
       </c>
@@ -3100,7 +3118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>1446</v>
       </c>
@@ -3117,7 +3135,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>1449</v>
       </c>
@@ -3134,7 +3152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>1449</v>
       </c>
@@ -3151,7 +3169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>1450</v>
       </c>
@@ -3168,7 +3186,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>1450</v>
       </c>
@@ -3185,7 +3203,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>1454</v>
       </c>
@@ -3202,7 +3220,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>1454</v>
       </c>
@@ -3219,7 +3237,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>1459</v>
       </c>
@@ -3236,7 +3254,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>1459</v>
       </c>
@@ -3253,7 +3271,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>1453</v>
       </c>
@@ -3270,7 +3288,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>1460</v>
       </c>
@@ -3287,7 +3305,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>1460</v>
       </c>
@@ -3304,7 +3322,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>1460</v>
       </c>
@@ -3321,7 +3339,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>1460</v>
       </c>
@@ -3335,6 +3353,397 @@
         <v>47</v>
       </c>
       <c r="E163" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>2032</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E164" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>2032</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E165" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>2032</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E166" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>2032</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E167" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>2032</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E168" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>2032</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E169" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>1470</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E170" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>1470</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E171" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>1470</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E172" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>1466</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E173" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>1466</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E174" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>1466</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E175" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>1466</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E176" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>1466</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E177" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>1466</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E178" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>1466</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E179" s="4">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>1466</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E180" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>1414</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E181" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>1415</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E182" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>1416</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E183" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>1414</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E184" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>1415</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E185" s="4">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>1416</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E186" s="4">
         <v>2</v>
       </c>
     </row>
